--- a/outputs-HGR-r202/test-o__Acidaminococcales_split_pruned.xlsx
+++ b/outputs-HGR-r202/test-o__Acidaminococcales_split_pruned.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="160">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1600" uniqueCount="160">
   <si>
     <t>Row</t>
   </si>
@@ -514,7 +514,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="21">
     <border>
       <left/>
       <right/>
@@ -524,14 +524,50 @@
     </border>
     <border/>
     <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="16" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="17" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="18" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="19" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="20" xfId="0" applyNumberFormat="true"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -550,1738 +586,1738 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="19" t="s">
         <v>158</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="19" t="s">
         <v>159</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="1" t="s">
+      <c r="A2" s="19" t="s">
         <v>1</v>
       </c>
       <c r="B2">
-        <v>1</v>
+        <v>33761.901888296532</v>
       </c>
       <c r="C2">
         <v>1</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="1" t="s">
+      <c r="A3" s="19" t="s">
         <v>2</v>
       </c>
       <c r="B3">
-        <v>1</v>
+        <v>41398.852673195812</v>
       </c>
       <c r="C3">
         <v>1</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="1" t="s">
+      <c r="A4" s="19" t="s">
         <v>3</v>
       </c>
       <c r="B4">
-        <v>1</v>
+        <v>20294.441324124517</v>
       </c>
       <c r="C4">
         <v>1</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="1" t="s">
+      <c r="A5" s="19" t="s">
         <v>4</v>
       </c>
       <c r="B5">
-        <v>1</v>
+        <v>47050.795277378566</v>
       </c>
       <c r="C5">
         <v>1</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="1" t="s">
+      <c r="A6" s="19" t="s">
         <v>5</v>
       </c>
       <c r="B6">
-        <v>1</v>
+        <v>37831.274812427437</v>
       </c>
       <c r="C6">
         <v>1</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="1" t="s">
+      <c r="A7" s="19" t="s">
         <v>6</v>
       </c>
       <c r="B7">
-        <v>1</v>
+        <v>23805.972493309491</v>
       </c>
       <c r="C7">
         <v>1</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="1" t="s">
+      <c r="A8" s="19" t="s">
         <v>7</v>
       </c>
       <c r="B8">
-        <v>1</v>
+        <v>33269.521183912802</v>
       </c>
       <c r="C8">
         <v>1</v>
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="1" t="s">
+      <c r="A9" s="19" t="s">
         <v>8</v>
       </c>
       <c r="B9">
-        <v>1</v>
+        <v>33269.521183912802</v>
       </c>
       <c r="C9">
         <v>1</v>
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="1" t="s">
+      <c r="A10" s="19" t="s">
         <v>9</v>
       </c>
       <c r="B10">
-        <v>1</v>
+        <v>28200.836350389556</v>
       </c>
       <c r="C10">
         <v>1</v>
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="1" t="s">
+      <c r="A11" s="19" t="s">
         <v>10</v>
       </c>
       <c r="B11">
-        <v>1</v>
+        <v>31202.006466498311</v>
       </c>
       <c r="C11">
         <v>1</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="1" t="s">
+      <c r="A12" s="19" t="s">
         <v>11</v>
       </c>
       <c r="B12">
-        <v>1</v>
+        <v>39832.479534257684</v>
       </c>
       <c r="C12">
         <v>1</v>
       </c>
     </row>
     <row r="13">
-      <c r="A13" s="1" t="s">
+      <c r="A13" s="19" t="s">
         <v>12</v>
       </c>
       <c r="B13">
-        <v>1</v>
+        <v>40498.81471219247</v>
       </c>
       <c r="C13">
         <v>1</v>
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="1" t="s">
+      <c r="A14" s="19" t="s">
         <v>13</v>
       </c>
       <c r="B14">
-        <v>1</v>
+        <v>37520.657956701121</v>
       </c>
       <c r="C14">
         <v>1</v>
       </c>
     </row>
     <row r="15">
-      <c r="A15" s="1" t="s">
+      <c r="A15" s="19" t="s">
         <v>14</v>
       </c>
       <c r="B15">
-        <v>1</v>
+        <v>39367.632050026077</v>
       </c>
       <c r="C15">
         <v>1</v>
       </c>
     </row>
     <row r="16">
-      <c r="A16" s="1" t="s">
+      <c r="A16" s="19" t="s">
         <v>15</v>
       </c>
       <c r="B16">
-        <v>1</v>
+        <v>31940.938533600132</v>
       </c>
       <c r="C16">
         <v>1</v>
       </c>
     </row>
     <row r="17">
-      <c r="A17" s="1" t="s">
+      <c r="A17" s="19" t="s">
         <v>16</v>
       </c>
       <c r="B17">
-        <v>1</v>
+        <v>35138.695956433759</v>
       </c>
       <c r="C17">
         <v>1</v>
       </c>
     </row>
     <row r="18">
-      <c r="A18" s="1" t="s">
+      <c r="A18" s="19" t="s">
         <v>17</v>
       </c>
       <c r="B18">
-        <v>1</v>
+        <v>23714.90007790297</v>
       </c>
       <c r="C18">
         <v>1</v>
       </c>
     </row>
     <row r="19">
-      <c r="A19" s="1" t="s">
+      <c r="A19" s="19" t="s">
         <v>18</v>
       </c>
       <c r="B19">
-        <v>1</v>
+        <v>37738.26146697998</v>
       </c>
       <c r="C19">
         <v>1</v>
       </c>
     </row>
     <row r="20">
-      <c r="A20" s="1" t="s">
+      <c r="A20" s="19" t="s">
         <v>19</v>
       </c>
       <c r="B20">
-        <v>1</v>
+        <v>18225.064381868884</v>
       </c>
       <c r="C20">
         <v>1</v>
       </c>
     </row>
     <row r="21">
-      <c r="A21" s="1" t="s">
+      <c r="A21" s="19" t="s">
         <v>20</v>
       </c>
       <c r="B21">
-        <v>1</v>
+        <v>32660.622931255686</v>
       </c>
       <c r="C21">
         <v>1</v>
       </c>
     </row>
     <row r="22">
-      <c r="A22" s="1" t="s">
+      <c r="A22" s="19" t="s">
         <v>21</v>
       </c>
       <c r="B22">
-        <v>1</v>
+        <v>33014.789652200125</v>
       </c>
       <c r="C22">
         <v>1</v>
       </c>
     </row>
     <row r="23">
-      <c r="A23" s="1" t="s">
+      <c r="A23" s="19" t="s">
         <v>22</v>
       </c>
       <c r="B23">
-        <v>1</v>
+        <v>33020.856389657216</v>
       </c>
       <c r="C23">
         <v>1</v>
       </c>
     </row>
     <row r="24">
-      <c r="A24" s="1" t="s">
+      <c r="A24" s="19" t="s">
         <v>23</v>
       </c>
       <c r="B24">
-        <v>1</v>
+        <v>29847.28903130539</v>
       </c>
       <c r="C24">
         <v>1</v>
       </c>
     </row>
     <row r="25">
-      <c r="A25" s="1" t="s">
+      <c r="A25" s="19" t="s">
         <v>24</v>
       </c>
       <c r="B25">
-        <v>1</v>
+        <v>32306.847102126205</v>
       </c>
       <c r="C25">
         <v>1</v>
       </c>
     </row>
     <row r="26">
-      <c r="A26" s="1" t="s">
+      <c r="A26" s="19" t="s">
         <v>25</v>
       </c>
       <c r="B26">
-        <v>1</v>
+        <v>29787.725791887631</v>
       </c>
       <c r="C26">
         <v>1</v>
       </c>
     </row>
     <row r="27">
-      <c r="A27" s="1" t="s">
+      <c r="A27" s="19" t="s">
         <v>26</v>
       </c>
       <c r="B27">
-        <v>1</v>
+        <v>41031.006804096076</v>
       </c>
       <c r="C27">
         <v>1</v>
       </c>
     </row>
     <row r="28">
-      <c r="A28" s="1" t="s">
+      <c r="A28" s="19" t="s">
         <v>27</v>
       </c>
       <c r="B28">
-        <v>1</v>
+        <v>17058.906002364467</v>
       </c>
       <c r="C28">
         <v>1</v>
       </c>
     </row>
     <row r="29">
-      <c r="A29" s="1" t="s">
+      <c r="A29" s="19" t="s">
         <v>28</v>
       </c>
       <c r="B29">
-        <v>1</v>
+        <v>20975.410045154065</v>
       </c>
       <c r="C29">
         <v>1</v>
       </c>
     </row>
     <row r="30">
-      <c r="A30" s="1" t="s">
+      <c r="A30" s="19" t="s">
         <v>29</v>
       </c>
       <c r="B30">
-        <v>1</v>
+        <v>28801.097154515028</v>
       </c>
       <c r="C30">
         <v>1</v>
       </c>
     </row>
     <row r="31">
-      <c r="A31" s="1" t="s">
+      <c r="A31" s="19" t="s">
         <v>30</v>
       </c>
       <c r="B31">
-        <v>1</v>
+        <v>17345.210245339775</v>
       </c>
       <c r="C31">
         <v>1</v>
       </c>
     </row>
     <row r="32">
-      <c r="A32" s="1" t="s">
+      <c r="A32" s="19" t="s">
         <v>31</v>
       </c>
       <c r="B32">
-        <v>1</v>
+        <v>31399.932810423987</v>
       </c>
       <c r="C32">
         <v>1</v>
       </c>
     </row>
     <row r="33">
-      <c r="A33" s="1" t="s">
+      <c r="A33" s="19" t="s">
         <v>32</v>
       </c>
       <c r="B33">
-        <v>1</v>
+        <v>27171.376328810595</v>
       </c>
       <c r="C33">
         <v>1</v>
       </c>
     </row>
     <row r="34">
-      <c r="A34" s="1" t="s">
+      <c r="A34" s="19" t="s">
         <v>33</v>
       </c>
       <c r="B34">
-        <v>1</v>
+        <v>27680.46775989352</v>
       </c>
       <c r="C34">
         <v>1</v>
       </c>
     </row>
     <row r="35">
-      <c r="A35" s="1" t="s">
+      <c r="A35" s="19" t="s">
         <v>34</v>
       </c>
       <c r="B35">
-        <v>1</v>
+        <v>32778.506343622168</v>
       </c>
       <c r="C35">
         <v>1</v>
       </c>
     </row>
     <row r="36">
-      <c r="A36" s="1" t="s">
+      <c r="A36" s="19" t="s">
         <v>35</v>
       </c>
       <c r="B36">
-        <v>1</v>
+        <v>27680.46775989352</v>
       </c>
       <c r="C36">
         <v>1</v>
       </c>
     </row>
     <row r="37">
-      <c r="A37" s="1" t="s">
+      <c r="A37" s="19" t="s">
         <v>36</v>
       </c>
       <c r="B37">
-        <v>1</v>
+        <v>26802.117753919916</v>
       </c>
       <c r="C37">
         <v>1</v>
       </c>
     </row>
     <row r="38">
-      <c r="A38" s="1" t="s">
+      <c r="A38" s="19" t="s">
         <v>37</v>
       </c>
       <c r="B38">
-        <v>1</v>
+        <v>38865.893684203809</v>
       </c>
       <c r="C38">
         <v>1</v>
       </c>
     </row>
     <row r="39">
-      <c r="A39" s="1" t="s">
+      <c r="A39" s="19" t="s">
         <v>38</v>
       </c>
       <c r="B39">
-        <v>1</v>
+        <v>41470.569828189866</v>
       </c>
       <c r="C39">
         <v>1</v>
       </c>
     </row>
     <row r="40">
-      <c r="A40" s="1" t="s">
+      <c r="A40" s="19" t="s">
         <v>39</v>
       </c>
       <c r="B40">
-        <v>1</v>
+        <v>32086.363904946618</v>
       </c>
       <c r="C40">
         <v>1</v>
       </c>
     </row>
     <row r="41">
-      <c r="A41" s="1" t="s">
+      <c r="A41" s="19" t="s">
         <v>40</v>
       </c>
       <c r="B41">
-        <v>1</v>
+        <v>46331.372348461111</v>
       </c>
       <c r="C41">
         <v>1</v>
       </c>
     </row>
     <row r="42">
-      <c r="A42" s="1" t="s">
+      <c r="A42" s="19" t="s">
         <v>41</v>
       </c>
       <c r="B42">
-        <v>1</v>
+        <v>40533.459785764193</v>
       </c>
       <c r="C42">
         <v>1</v>
       </c>
     </row>
     <row r="43">
-      <c r="A43" s="1" t="s">
+      <c r="A43" s="19" t="s">
         <v>42</v>
       </c>
       <c r="B43">
-        <v>1</v>
+        <v>40245.463644812146</v>
       </c>
       <c r="C43">
         <v>1</v>
       </c>
     </row>
     <row r="44">
-      <c r="A44" s="1" t="s">
+      <c r="A44" s="19" t="s">
         <v>43</v>
       </c>
       <c r="B44">
-        <v>1</v>
+        <v>43552.955075216421</v>
       </c>
       <c r="C44">
         <v>1</v>
       </c>
     </row>
     <row r="45">
-      <c r="A45" s="1" t="s">
+      <c r="A45" s="19" t="s">
         <v>44</v>
       </c>
       <c r="B45">
-        <v>1</v>
+        <v>37635.685119755828</v>
       </c>
       <c r="C45">
         <v>1</v>
       </c>
     </row>
     <row r="46">
-      <c r="A46" s="1" t="s">
+      <c r="A46" s="19" t="s">
         <v>45</v>
       </c>
       <c r="B46">
-        <v>1</v>
+        <v>45113.805772148073</v>
       </c>
       <c r="C46">
         <v>1</v>
       </c>
     </row>
     <row r="47">
-      <c r="A47" s="1" t="s">
+      <c r="A47" s="19" t="s">
         <v>46</v>
       </c>
       <c r="B47">
-        <v>1</v>
+        <v>43574.699638304461</v>
       </c>
       <c r="C47">
         <v>1</v>
       </c>
     </row>
     <row r="48">
-      <c r="A48" s="1" t="s">
+      <c r="A48" s="19" t="s">
         <v>47</v>
       </c>
       <c r="B48">
-        <v>1</v>
+        <v>27017.007231062187</v>
       </c>
       <c r="C48">
         <v>1</v>
       </c>
     </row>
     <row r="49">
-      <c r="A49" s="1" t="s">
+      <c r="A49" s="19" t="s">
         <v>48</v>
       </c>
       <c r="B49">
-        <v>1</v>
+        <v>37737.294042691181</v>
       </c>
       <c r="C49">
         <v>1</v>
       </c>
     </row>
     <row r="50">
-      <c r="A50" s="1" t="s">
+      <c r="A50" s="19" t="s">
         <v>49</v>
       </c>
       <c r="B50">
-        <v>1</v>
+        <v>31280.724526515904</v>
       </c>
       <c r="C50">
         <v>1</v>
       </c>
     </row>
     <row r="51">
-      <c r="A51" s="1" t="s">
+      <c r="A51" s="19" t="s">
         <v>50</v>
       </c>
       <c r="B51">
-        <v>1</v>
+        <v>29684.448801554132</v>
       </c>
       <c r="C51">
         <v>1</v>
       </c>
     </row>
     <row r="52">
-      <c r="A52" s="1" t="s">
+      <c r="A52" s="19" t="s">
         <v>51</v>
       </c>
       <c r="B52">
-        <v>1</v>
+        <v>33280.457996465833</v>
       </c>
       <c r="C52">
         <v>1</v>
       </c>
     </row>
     <row r="53">
-      <c r="A53" s="1" t="s">
+      <c r="A53" s="19" t="s">
         <v>52</v>
       </c>
       <c r="B53">
-        <v>1</v>
+        <v>28706.117901219197</v>
       </c>
       <c r="C53">
         <v>1</v>
       </c>
     </row>
     <row r="54">
-      <c r="A54" s="1" t="s">
+      <c r="A54" s="19" t="s">
         <v>53</v>
       </c>
       <c r="B54">
-        <v>1</v>
+        <v>31280.724526515904</v>
       </c>
       <c r="C54">
         <v>1</v>
       </c>
     </row>
     <row r="55">
-      <c r="A55" s="1" t="s">
+      <c r="A55" s="19" t="s">
         <v>54</v>
       </c>
       <c r="B55">
-        <v>1</v>
+        <v>31924.681314365367</v>
       </c>
       <c r="C55">
         <v>1</v>
       </c>
     </row>
     <row r="56">
-      <c r="A56" s="1" t="s">
+      <c r="A56" s="19" t="s">
         <v>55</v>
       </c>
       <c r="B56">
-        <v>1</v>
+        <v>33333.537990300363</v>
       </c>
       <c r="C56">
         <v>1</v>
       </c>
     </row>
     <row r="57">
-      <c r="A57" s="1" t="s">
+      <c r="A57" s="19" t="s">
         <v>56</v>
       </c>
       <c r="B57">
-        <v>1</v>
+        <v>38672.792250745493</v>
       </c>
       <c r="C57">
         <v>1</v>
       </c>
     </row>
     <row r="58">
-      <c r="A58" s="1" t="s">
+      <c r="A58" s="19" t="s">
         <v>57</v>
       </c>
       <c r="B58">
-        <v>1</v>
+        <v>35346.844313648005</v>
       </c>
       <c r="C58">
         <v>1</v>
       </c>
     </row>
     <row r="59">
-      <c r="A59" s="1" t="s">
+      <c r="A59" s="19" t="s">
         <v>58</v>
       </c>
       <c r="B59">
-        <v>1</v>
+        <v>30866.827959939506</v>
       </c>
       <c r="C59">
         <v>1</v>
       </c>
     </row>
     <row r="60">
-      <c r="A60" s="1" t="s">
+      <c r="A60" s="19" t="s">
         <v>59</v>
       </c>
       <c r="B60">
-        <v>1</v>
+        <v>36467.337428263447</v>
       </c>
       <c r="C60">
         <v>1</v>
       </c>
     </row>
     <row r="61">
-      <c r="A61" s="1" t="s">
+      <c r="A61" s="19" t="s">
         <v>60</v>
       </c>
       <c r="B61">
-        <v>1</v>
+        <v>36244.364282188923</v>
       </c>
       <c r="C61">
         <v>1</v>
       </c>
     </row>
     <row r="62">
-      <c r="A62" s="1" t="s">
+      <c r="A62" s="19" t="s">
         <v>61</v>
       </c>
       <c r="B62">
-        <v>1</v>
+        <v>33980.834119373045</v>
       </c>
       <c r="C62">
         <v>1</v>
       </c>
     </row>
     <row r="63">
-      <c r="A63" s="1" t="s">
+      <c r="A63" s="19" t="s">
         <v>62</v>
       </c>
       <c r="B63">
-        <v>1</v>
+        <v>43666.324916988757</v>
       </c>
       <c r="C63">
         <v>1</v>
       </c>
     </row>
     <row r="64">
-      <c r="A64" s="1" t="s">
+      <c r="A64" s="19" t="s">
         <v>63</v>
       </c>
       <c r="B64">
-        <v>1</v>
+        <v>33968.280103946425</v>
       </c>
       <c r="C64">
         <v>1</v>
       </c>
     </row>
     <row r="65">
-      <c r="A65" s="1" t="s">
+      <c r="A65" s="19" t="s">
         <v>64</v>
       </c>
       <c r="B65">
-        <v>1</v>
+        <v>34997.501976300031</v>
       </c>
       <c r="C65">
         <v>1</v>
       </c>
     </row>
     <row r="66">
-      <c r="A66" s="1" t="s">
+      <c r="A66" s="19" t="s">
         <v>65</v>
       </c>
       <c r="B66">
-        <v>1</v>
+        <v>44930.242457986766</v>
       </c>
       <c r="C66">
         <v>1</v>
       </c>
     </row>
     <row r="67">
-      <c r="A67" s="1" t="s">
+      <c r="A67" s="19" t="s">
         <v>66</v>
       </c>
       <c r="B67">
-        <v>1</v>
+        <v>37737.294042691181</v>
       </c>
       <c r="C67">
         <v>1</v>
       </c>
     </row>
     <row r="68">
-      <c r="A68" s="1" t="s">
+      <c r="A68" s="19" t="s">
         <v>67</v>
       </c>
       <c r="B68">
-        <v>1</v>
+        <v>30610.116590385853</v>
       </c>
       <c r="C68">
         <v>1</v>
       </c>
     </row>
     <row r="69">
-      <c r="A69" s="1" t="s">
+      <c r="A69" s="19" t="s">
         <v>68</v>
       </c>
       <c r="B69">
-        <v>1</v>
+        <v>35898.30952283174</v>
       </c>
       <c r="C69">
         <v>1</v>
       </c>
     </row>
     <row r="70">
-      <c r="A70" s="1" t="s">
+      <c r="A70" s="19" t="s">
         <v>69</v>
       </c>
       <c r="B70">
-        <v>1</v>
+        <v>30713.378470011321</v>
       </c>
       <c r="C70">
         <v>1</v>
       </c>
     </row>
     <row r="71">
-      <c r="A71" s="1" t="s">
+      <c r="A71" s="19" t="s">
         <v>70</v>
       </c>
       <c r="B71">
-        <v>1</v>
+        <v>41964.064443456155</v>
       </c>
       <c r="C71">
         <v>1</v>
       </c>
     </row>
     <row r="72">
-      <c r="A72" s="1" t="s">
+      <c r="A72" s="19" t="s">
         <v>71</v>
       </c>
       <c r="B72">
-        <v>1</v>
+        <v>33803.610742146644</v>
       </c>
       <c r="C72">
         <v>1</v>
       </c>
     </row>
     <row r="73">
-      <c r="A73" s="1" t="s">
+      <c r="A73" s="19" t="s">
         <v>72</v>
       </c>
       <c r="B73">
-        <v>1</v>
+        <v>45337.673242382647</v>
       </c>
       <c r="C73">
         <v>1</v>
       </c>
     </row>
     <row r="74">
-      <c r="A74" s="1" t="s">
+      <c r="A74" s="19" t="s">
         <v>73</v>
       </c>
       <c r="B74">
-        <v>1</v>
+        <v>39937.914696019987</v>
       </c>
       <c r="C74">
         <v>1</v>
       </c>
     </row>
     <row r="75">
-      <c r="A75" s="1" t="s">
+      <c r="A75" s="19" t="s">
         <v>74</v>
       </c>
       <c r="B75">
-        <v>1</v>
+        <v>41838.104239785433</v>
       </c>
       <c r="C75">
         <v>1</v>
       </c>
     </row>
     <row r="76">
-      <c r="A76" s="1" t="s">
+      <c r="A76" s="19" t="s">
         <v>75</v>
       </c>
       <c r="B76">
-        <v>1</v>
+        <v>38150.061444343417</v>
       </c>
       <c r="C76">
         <v>1</v>
       </c>
     </row>
     <row r="77">
-      <c r="A77" s="1" t="s">
+      <c r="A77" s="19" t="s">
         <v>76</v>
       </c>
       <c r="B77">
-        <v>1</v>
+        <v>40104.724304045914</v>
       </c>
       <c r="C77">
         <v>1</v>
       </c>
     </row>
     <row r="78">
-      <c r="A78" s="1" t="s">
+      <c r="A78" s="19" t="s">
         <v>77</v>
       </c>
       <c r="B78">
-        <v>1</v>
+        <v>27871.214944358657</v>
       </c>
       <c r="C78">
         <v>1</v>
       </c>
     </row>
     <row r="79">
-      <c r="A79" s="1" t="s">
+      <c r="A79" s="19" t="s">
         <v>78</v>
       </c>
       <c r="B79">
-        <v>1</v>
+        <v>28369.155334313702</v>
       </c>
       <c r="C79">
         <v>1</v>
       </c>
     </row>
     <row r="80">
-      <c r="A80" s="1" t="s">
+      <c r="A80" s="19" t="s">
         <v>79</v>
       </c>
       <c r="B80">
-        <v>1</v>
+        <v>36035.219593904985</v>
       </c>
       <c r="C80">
         <v>1</v>
       </c>
     </row>
     <row r="81">
-      <c r="A81" s="1" t="s">
+      <c r="A81" s="19" t="s">
         <v>80</v>
       </c>
       <c r="B81">
-        <v>1</v>
+        <v>40189.166239912243</v>
       </c>
       <c r="C81">
         <v>1</v>
       </c>
     </row>
     <row r="82">
-      <c r="A82" s="1" t="s">
+      <c r="A82" s="19" t="s">
         <v>81</v>
       </c>
       <c r="B82">
-        <v>1</v>
+        <v>34529.989832063497</v>
       </c>
       <c r="C82">
         <v>1</v>
       </c>
     </row>
     <row r="83">
-      <c r="A83" s="1" t="s">
+      <c r="A83" s="19" t="s">
         <v>82</v>
       </c>
       <c r="B83">
-        <v>1</v>
+        <v>29482.013261411845</v>
       </c>
       <c r="C83">
         <v>1</v>
       </c>
     </row>
     <row r="84">
-      <c r="A84" s="1" t="s">
+      <c r="A84" s="19" t="s">
         <v>83</v>
       </c>
       <c r="B84">
-        <v>1</v>
+        <v>38623.584711271789</v>
       </c>
       <c r="C84">
         <v>1</v>
       </c>
     </row>
     <row r="85">
-      <c r="A85" s="1" t="s">
+      <c r="A85" s="19" t="s">
         <v>84</v>
       </c>
       <c r="B85">
-        <v>1</v>
+        <v>39129.600743199364</v>
       </c>
       <c r="C85">
         <v>1</v>
       </c>
     </row>
     <row r="86">
-      <c r="A86" s="1" t="s">
+      <c r="A86" s="19" t="s">
         <v>85</v>
       </c>
       <c r="B86">
-        <v>1</v>
+        <v>23844.103334863943</v>
       </c>
       <c r="C86">
         <v>1</v>
       </c>
     </row>
     <row r="87">
-      <c r="A87" s="1" t="s">
+      <c r="A87" s="19" t="s">
         <v>86</v>
       </c>
       <c r="B87">
-        <v>1</v>
+        <v>21358.037063633074</v>
       </c>
       <c r="C87">
         <v>1</v>
       </c>
     </row>
     <row r="88">
-      <c r="A88" s="1" t="s">
+      <c r="A88" s="19" t="s">
         <v>87</v>
       </c>
       <c r="B88">
-        <v>1</v>
+        <v>20955.540935780187</v>
       </c>
       <c r="C88">
         <v>1</v>
       </c>
     </row>
     <row r="89">
-      <c r="A89" s="1" t="s">
+      <c r="A89" s="19" t="s">
         <v>88</v>
       </c>
       <c r="B89">
-        <v>1</v>
+        <v>18351.438204667935</v>
       </c>
       <c r="C89">
         <v>1</v>
       </c>
     </row>
     <row r="90">
-      <c r="A90" s="1" t="s">
+      <c r="A90" s="19" t="s">
         <v>89</v>
       </c>
       <c r="B90">
-        <v>1</v>
+        <v>31303.528159702812</v>
       </c>
       <c r="C90">
         <v>1</v>
       </c>
     </row>
     <row r="91">
-      <c r="A91" s="1" t="s">
+      <c r="A91" s="19" t="s">
         <v>90</v>
       </c>
       <c r="B91">
-        <v>1</v>
+        <v>35533.752378073972</v>
       </c>
       <c r="C91">
         <v>1</v>
       </c>
     </row>
     <row r="92">
-      <c r="A92" s="1" t="s">
+      <c r="A92" s="19" t="s">
         <v>91</v>
       </c>
       <c r="B92">
-        <v>1</v>
+        <v>39334.26362616093</v>
       </c>
       <c r="C92">
         <v>1</v>
       </c>
     </row>
     <row r="93">
-      <c r="A93" s="1" t="s">
+      <c r="A93" s="19" t="s">
         <v>92</v>
       </c>
       <c r="B93">
-        <v>1</v>
+        <v>35342.436942704167</v>
       </c>
       <c r="C93">
         <v>1</v>
       </c>
     </row>
     <row r="94">
-      <c r="A94" s="1" t="s">
+      <c r="A94" s="19" t="s">
         <v>93</v>
       </c>
       <c r="B94">
-        <v>1</v>
+        <v>38283.688207204948</v>
       </c>
       <c r="C94">
         <v>1</v>
       </c>
     </row>
     <row r="95">
-      <c r="A95" s="1" t="s">
+      <c r="A95" s="19" t="s">
         <v>94</v>
       </c>
       <c r="B95">
-        <v>1</v>
+        <v>33437.021456288174</v>
       </c>
       <c r="C95">
         <v>1</v>
       </c>
     </row>
     <row r="96">
-      <c r="A96" s="1" t="s">
+      <c r="A96" s="19" t="s">
         <v>95</v>
       </c>
       <c r="B96">
-        <v>1</v>
+        <v>38639.23099651275</v>
       </c>
       <c r="C96">
         <v>1</v>
       </c>
     </row>
     <row r="97">
-      <c r="A97" s="1" t="s">
+      <c r="A97" s="19" t="s">
         <v>96</v>
       </c>
       <c r="B97">
-        <v>1</v>
+        <v>33870.640153459681</v>
       </c>
       <c r="C97">
         <v>1</v>
       </c>
     </row>
     <row r="98">
-      <c r="A98" s="1" t="s">
+      <c r="A98" s="19" t="s">
         <v>97</v>
       </c>
       <c r="B98">
-        <v>1</v>
+        <v>17359.041183041154</v>
       </c>
       <c r="C98">
         <v>1</v>
       </c>
     </row>
     <row r="99">
-      <c r="A99" s="1" t="s">
+      <c r="A99" s="19" t="s">
         <v>98</v>
       </c>
       <c r="B99">
-        <v>1</v>
+        <v>42679.617257571343</v>
       </c>
       <c r="C99">
         <v>1</v>
       </c>
     </row>
     <row r="100">
-      <c r="A100" s="1" t="s">
+      <c r="A100" s="19" t="s">
         <v>99</v>
       </c>
       <c r="B100">
-        <v>1</v>
+        <v>17718.645235463762</v>
       </c>
       <c r="C100">
         <v>1</v>
       </c>
     </row>
     <row r="101">
-      <c r="A101" s="1" t="s">
+      <c r="A101" s="19" t="s">
         <v>100</v>
       </c>
       <c r="B101">
-        <v>1</v>
+        <v>39381.385369783413</v>
       </c>
       <c r="C101">
         <v>1</v>
       </c>
     </row>
     <row r="102">
-      <c r="A102" s="1" t="s">
+      <c r="A102" s="19" t="s">
         <v>101</v>
       </c>
       <c r="B102">
-        <v>1</v>
+        <v>34521.026973957531</v>
       </c>
       <c r="C102">
         <v>1</v>
       </c>
     </row>
     <row r="103">
-      <c r="A103" s="1" t="s">
+      <c r="A103" s="19" t="s">
         <v>102</v>
       </c>
       <c r="B103">
-        <v>1</v>
+        <v>41400.430472176231</v>
       </c>
       <c r="C103">
         <v>1</v>
       </c>
     </row>
     <row r="104">
-      <c r="A104" s="1" t="s">
+      <c r="A104" s="19" t="s">
         <v>103</v>
       </c>
       <c r="B104">
-        <v>1</v>
+        <v>38144.85861434463</v>
       </c>
       <c r="C104">
         <v>1</v>
       </c>
     </row>
     <row r="105">
-      <c r="A105" s="1" t="s">
+      <c r="A105" s="19" t="s">
         <v>104</v>
       </c>
       <c r="B105">
-        <v>1</v>
+        <v>38249.806506617373</v>
       </c>
       <c r="C105">
         <v>1</v>
       </c>
     </row>
     <row r="106">
-      <c r="A106" s="1" t="s">
+      <c r="A106" s="19" t="s">
         <v>105</v>
       </c>
       <c r="B106">
-        <v>1</v>
+        <v>41400.430472176231</v>
       </c>
       <c r="C106">
         <v>1</v>
       </c>
     </row>
     <row r="107">
-      <c r="A107" s="1" t="s">
+      <c r="A107" s="19" t="s">
         <v>106</v>
       </c>
       <c r="B107">
-        <v>1</v>
+        <v>23578.716000934812</v>
       </c>
       <c r="C107">
         <v>1</v>
       </c>
     </row>
     <row r="108">
-      <c r="A108" s="1" t="s">
+      <c r="A108" s="19" t="s">
         <v>107</v>
       </c>
       <c r="B108">
-        <v>1</v>
+        <v>32877.164767615832</v>
       </c>
       <c r="C108">
         <v>1</v>
       </c>
     </row>
     <row r="109">
-      <c r="A109" s="1" t="s">
+      <c r="A109" s="19" t="s">
         <v>108</v>
       </c>
       <c r="B109">
-        <v>1</v>
+        <v>35411.626242926373</v>
       </c>
       <c r="C109">
         <v>1</v>
       </c>
     </row>
     <row r="110">
-      <c r="A110" s="1" t="s">
+      <c r="A110" s="19" t="s">
         <v>109</v>
       </c>
       <c r="B110">
-        <v>1</v>
+        <v>45179.955523152879</v>
       </c>
       <c r="C110">
         <v>1</v>
       </c>
     </row>
     <row r="111">
-      <c r="A111" s="1" t="s">
+      <c r="A111" s="19" t="s">
         <v>110</v>
       </c>
       <c r="B111">
-        <v>1</v>
+        <v>36857.900075876707</v>
       </c>
       <c r="C111">
         <v>1</v>
       </c>
     </row>
     <row r="112">
-      <c r="A112" s="1" t="s">
+      <c r="A112" s="19" t="s">
         <v>111</v>
       </c>
       <c r="B112">
-        <v>1</v>
+        <v>35686.462847723087</v>
       </c>
       <c r="C112">
         <v>1</v>
       </c>
     </row>
     <row r="113">
-      <c r="A113" s="1" t="s">
+      <c r="A113" s="19" t="s">
         <v>112</v>
       </c>
       <c r="B113">
-        <v>1</v>
+        <v>35686.462847723087</v>
       </c>
       <c r="C113">
         <v>1</v>
       </c>
     </row>
     <row r="114">
-      <c r="A114" s="1" t="s">
+      <c r="A114" s="19" t="s">
         <v>113</v>
       </c>
       <c r="B114">
-        <v>1</v>
+        <v>38597.935561185019</v>
       </c>
       <c r="C114">
         <v>1</v>
       </c>
     </row>
     <row r="115">
-      <c r="A115" s="1" t="s">
+      <c r="A115" s="19" t="s">
         <v>114</v>
       </c>
       <c r="B115">
-        <v>1</v>
+        <v>36850.370222252866</v>
       </c>
       <c r="C115">
         <v>1</v>
       </c>
     </row>
     <row r="116">
-      <c r="A116" s="1" t="s">
+      <c r="A116" s="19" t="s">
         <v>115</v>
       </c>
       <c r="B116">
-        <v>1</v>
+        <v>33820.549640786674</v>
       </c>
       <c r="C116">
         <v>1</v>
       </c>
     </row>
     <row r="117">
-      <c r="A117" s="1" t="s">
+      <c r="A117" s="19" t="s">
         <v>116</v>
       </c>
       <c r="B117">
-        <v>1</v>
+        <v>26133.753976839111</v>
       </c>
       <c r="C117">
         <v>1</v>
       </c>
     </row>
     <row r="118">
-      <c r="A118" s="1" t="s">
+      <c r="A118" s="19" t="s">
         <v>117</v>
       </c>
       <c r="B118">
-        <v>1</v>
+        <v>39972.98444509464</v>
       </c>
       <c r="C118">
         <v>1</v>
       </c>
     </row>
     <row r="119">
-      <c r="A119" s="1" t="s">
+      <c r="A119" s="19" t="s">
         <v>118</v>
       </c>
       <c r="B119">
-        <v>1</v>
+        <v>35535.491867163262</v>
       </c>
       <c r="C119">
         <v>1</v>
       </c>
     </row>
     <row r="120">
-      <c r="A120" s="1" t="s">
+      <c r="A120" s="19" t="s">
         <v>119</v>
       </c>
       <c r="B120">
-        <v>1</v>
+        <v>29325.729136202612</v>
       </c>
       <c r="C120">
         <v>1</v>
       </c>
     </row>
     <row r="121">
-      <c r="A121" s="1" t="s">
+      <c r="A121" s="19" t="s">
         <v>120</v>
       </c>
       <c r="B121">
-        <v>1</v>
+        <v>33148.843807430239</v>
       </c>
       <c r="C121">
         <v>1</v>
       </c>
     </row>
     <row r="122">
-      <c r="A122" s="1" t="s">
+      <c r="A122" s="19" t="s">
         <v>121</v>
       </c>
       <c r="B122">
-        <v>1</v>
+        <v>35278.858616282232</v>
       </c>
       <c r="C122">
         <v>1</v>
       </c>
     </row>
     <row r="123">
-      <c r="A123" s="1" t="s">
+      <c r="A123" s="19" t="s">
         <v>122</v>
       </c>
       <c r="B123">
-        <v>1</v>
+        <v>29008.130772101464</v>
       </c>
       <c r="C123">
         <v>1</v>
       </c>
     </row>
     <row r="124">
-      <c r="A124" s="1" t="s">
+      <c r="A124" s="19" t="s">
         <v>123</v>
       </c>
       <c r="B124">
-        <v>1</v>
+        <v>27605.807063044736</v>
       </c>
       <c r="C124">
         <v>1</v>
       </c>
     </row>
     <row r="125">
-      <c r="A125" s="1" t="s">
+      <c r="A125" s="19" t="s">
         <v>124</v>
       </c>
       <c r="B125">
-        <v>1</v>
+        <v>28091.381993220512</v>
       </c>
       <c r="C125">
         <v>1</v>
       </c>
     </row>
     <row r="126">
-      <c r="A126" s="1" t="s">
+      <c r="A126" s="19" t="s">
         <v>125</v>
       </c>
       <c r="B126">
-        <v>1</v>
+        <v>30633.20710686607</v>
       </c>
       <c r="C126">
         <v>1</v>
       </c>
     </row>
     <row r="127">
-      <c r="A127" s="1" t="s">
+      <c r="A127" s="19" t="s">
         <v>126</v>
       </c>
       <c r="B127">
-        <v>1</v>
+        <v>30536.393487826677</v>
       </c>
       <c r="C127">
         <v>1</v>
       </c>
     </row>
     <row r="128">
-      <c r="A128" s="1" t="s">
+      <c r="A128" s="19" t="s">
         <v>127</v>
       </c>
       <c r="B128">
-        <v>1</v>
+        <v>31316.747951567322</v>
       </c>
       <c r="C128">
         <v>1</v>
       </c>
     </row>
     <row r="129">
-      <c r="A129" s="1" t="s">
+      <c r="A129" s="19" t="s">
         <v>128</v>
       </c>
       <c r="B129">
-        <v>1</v>
+        <v>30633.20710686607</v>
       </c>
       <c r="C129">
         <v>1</v>
       </c>
     </row>
     <row r="130">
-      <c r="A130" s="1" t="s">
+      <c r="A130" s="19" t="s">
         <v>129</v>
       </c>
       <c r="B130">
-        <v>1</v>
+        <v>31300.96362253989</v>
       </c>
       <c r="C130">
         <v>1</v>
       </c>
     </row>
     <row r="131">
-      <c r="A131" s="1" t="s">
+      <c r="A131" s="19" t="s">
         <v>130</v>
       </c>
       <c r="B131">
-        <v>1</v>
+        <v>31300.96362253989</v>
       </c>
       <c r="C131">
         <v>1</v>
       </c>
     </row>
     <row r="132">
-      <c r="A132" s="1" t="s">
+      <c r="A132" s="19" t="s">
         <v>131</v>
       </c>
       <c r="B132">
-        <v>1</v>
+        <v>16951.029217865584</v>
       </c>
       <c r="C132">
         <v>1</v>
       </c>
     </row>
     <row r="133">
-      <c r="A133" s="1" t="s">
+      <c r="A133" s="19" t="s">
         <v>132</v>
       </c>
       <c r="B133">
-        <v>1</v>
+        <v>33770.51897116589</v>
       </c>
       <c r="C133">
         <v>1</v>
       </c>
     </row>
     <row r="134">
-      <c r="A134" s="1" t="s">
+      <c r="A134" s="19" t="s">
         <v>133</v>
       </c>
       <c r="B134">
-        <v>1</v>
+        <v>31300.96362253989</v>
       </c>
       <c r="C134">
         <v>1</v>
       </c>
     </row>
     <row r="135">
-      <c r="A135" s="1" t="s">
+      <c r="A135" s="19" t="s">
         <v>134</v>
       </c>
       <c r="B135">
-        <v>1</v>
+        <v>35669.461990702286</v>
       </c>
       <c r="C135">
         <v>1</v>
       </c>
     </row>
     <row r="136">
-      <c r="A136" s="1" t="s">
+      <c r="A136" s="19" t="s">
         <v>135</v>
       </c>
       <c r="B136">
-        <v>1</v>
+        <v>26871.561811127216</v>
       </c>
       <c r="C136">
         <v>1</v>
       </c>
     </row>
     <row r="137">
-      <c r="A137" s="1" t="s">
+      <c r="A137" s="19" t="s">
         <v>136</v>
       </c>
       <c r="B137">
-        <v>1</v>
+        <v>31300.96362253989</v>
       </c>
       <c r="C137">
         <v>1</v>
       </c>
     </row>
     <row r="138">
-      <c r="A138" s="1" t="s">
+      <c r="A138" s="19" t="s">
         <v>137</v>
       </c>
       <c r="B138">
-        <v>1</v>
+        <v>31538.744374715123</v>
       </c>
       <c r="C138">
         <v>1</v>
       </c>
     </row>
     <row r="139">
-      <c r="A139" s="1" t="s">
+      <c r="A139" s="19" t="s">
         <v>138</v>
       </c>
       <c r="B139">
-        <v>1</v>
+        <v>25530.33087812275</v>
       </c>
       <c r="C139">
         <v>1</v>
       </c>
     </row>
     <row r="140">
-      <c r="A140" s="1" t="s">
+      <c r="A140" s="19" t="s">
         <v>139</v>
       </c>
       <c r="B140">
-        <v>1</v>
+        <v>31300.96362253989</v>
       </c>
       <c r="C140">
         <v>1</v>
       </c>
     </row>
     <row r="141">
-      <c r="A141" s="1" t="s">
+      <c r="A141" s="19" t="s">
         <v>140</v>
       </c>
       <c r="B141">
-        <v>1</v>
+        <v>31312.160189492188</v>
       </c>
       <c r="C141">
         <v>1</v>
       </c>
     </row>
     <row r="142">
-      <c r="A142" s="1" t="s">
+      <c r="A142" s="19" t="s">
         <v>141</v>
       </c>
       <c r="B142">
-        <v>1</v>
+        <v>31644.261399543084</v>
       </c>
       <c r="C142">
         <v>1</v>
       </c>
     </row>
     <row r="143">
-      <c r="A143" s="1" t="s">
+      <c r="A143" s="19" t="s">
         <v>142</v>
       </c>
       <c r="B143">
-        <v>1</v>
+        <v>31312.160189492188</v>
       </c>
       <c r="C143">
         <v>1</v>
       </c>
     </row>
     <row r="144">
-      <c r="A144" s="1" t="s">
+      <c r="A144" s="19" t="s">
         <v>143</v>
       </c>
       <c r="B144">
-        <v>1</v>
+        <v>31300.96362253989</v>
       </c>
       <c r="C144">
         <v>1</v>
       </c>
     </row>
     <row r="145">
-      <c r="A145" s="1" t="s">
+      <c r="A145" s="19" t="s">
         <v>144</v>
       </c>
       <c r="B145">
-        <v>1</v>
+        <v>31300.96362253989</v>
       </c>
       <c r="C145">
         <v>1</v>
       </c>
     </row>
     <row r="146">
-      <c r="A146" s="1" t="s">
+      <c r="A146" s="19" t="s">
         <v>145</v>
       </c>
       <c r="B146">
-        <v>1</v>
+        <v>35669.461990702286</v>
       </c>
       <c r="C146">
         <v>1</v>
       </c>
     </row>
     <row r="147">
-      <c r="A147" s="1" t="s">
+      <c r="A147" s="19" t="s">
         <v>146</v>
       </c>
       <c r="B147">
-        <v>1</v>
+        <v>30712.621801222103</v>
       </c>
       <c r="C147">
         <v>1</v>
       </c>
     </row>
     <row r="148">
-      <c r="A148" s="1" t="s">
+      <c r="A148" s="19" t="s">
         <v>147</v>
       </c>
       <c r="B148">
-        <v>1</v>
+        <v>31312.160189492188</v>
       </c>
       <c r="C148">
         <v>1</v>
       </c>
     </row>
     <row r="149">
-      <c r="A149" s="1" t="s">
+      <c r="A149" s="19" t="s">
         <v>148</v>
       </c>
       <c r="B149">
-        <v>1</v>
+        <v>30651.04056501768</v>
       </c>
       <c r="C149">
         <v>1</v>
       </c>
     </row>
     <row r="150">
-      <c r="A150" s="1" t="s">
+      <c r="A150" s="19" t="s">
         <v>149</v>
       </c>
       <c r="B150">
-        <v>1</v>
+        <v>25530.33087812275</v>
       </c>
       <c r="C150">
         <v>1</v>
       </c>
     </row>
     <row r="151">
-      <c r="A151" s="1" t="s">
+      <c r="A151" s="19" t="s">
         <v>150</v>
       </c>
       <c r="B151">
-        <v>1</v>
+        <v>31300.96362253989</v>
       </c>
       <c r="C151">
         <v>1</v>
       </c>
     </row>
     <row r="152">
-      <c r="A152" s="1" t="s">
+      <c r="A152" s="19" t="s">
         <v>151</v>
       </c>
       <c r="B152">
-        <v>1</v>
+        <v>28000.549804436374</v>
       </c>
       <c r="C152">
         <v>1</v>
       </c>
     </row>
     <row r="153">
-      <c r="A153" s="1" t="s">
+      <c r="A153" s="19" t="s">
         <v>152</v>
       </c>
       <c r="B153">
-        <v>1</v>
+        <v>31312.160189492188</v>
       </c>
       <c r="C153">
         <v>1</v>
       </c>
     </row>
     <row r="154">
-      <c r="A154" s="1" t="s">
+      <c r="A154" s="19" t="s">
         <v>153</v>
       </c>
       <c r="B154">
-        <v>1</v>
+        <v>31300.96362253989</v>
       </c>
       <c r="C154">
         <v>1</v>
       </c>
     </row>
     <row r="155">
-      <c r="A155" s="1" t="s">
+      <c r="A155" s="19" t="s">
         <v>154</v>
       </c>
       <c r="B155">
-        <v>1</v>
+        <v>31312.160189492188</v>
       </c>
       <c r="C155">
         <v>1</v>
       </c>
     </row>
     <row r="156">
-      <c r="A156" s="1" t="s">
+      <c r="A156" s="19" t="s">
         <v>155</v>
       </c>
       <c r="B156">
-        <v>1</v>
+        <v>31300.96362253989</v>
       </c>
       <c r="C156">
         <v>1</v>
       </c>
     </row>
     <row r="157">
-      <c r="A157" s="1" t="s">
+      <c r="A157" s="19" t="s">
         <v>156</v>
       </c>
       <c r="B157">
-        <v>1</v>
+        <v>31300.96362253989</v>
       </c>
       <c r="C157">
         <v>1</v>
       </c>
     </row>
     <row r="158">
-      <c r="A158" s="1" t="s">
+      <c r="A158" s="19" t="s">
         <v>157</v>
       </c>
       <c r="B158">
-        <v>1</v>
+        <v>31081.746711899181</v>
       </c>
       <c r="C158">
         <v>1</v>

--- a/outputs-HGR-r202/test-o__Acidaminococcales_split_pruned.xlsx
+++ b/outputs-HGR-r202/test-o__Acidaminococcales_split_pruned.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1600" uniqueCount="160">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="160">
   <si>
     <t>Row</t>
   </si>
@@ -514,7 +514,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="21">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -524,50 +524,14 @@
     </border>
     <border/>
     <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="16" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="17" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="18" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="19" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="20" xfId="0" applyNumberFormat="true"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -586,18 +550,18 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="19" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="19" t="s">
+      <c r="B1" s="1" t="s">
         <v>158</v>
       </c>
-      <c r="C1" s="19" t="s">
+      <c r="C1" s="1" t="s">
         <v>159</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="19" t="s">
+      <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
       <c r="B2">
@@ -608,7 +572,7 @@
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="19" t="s">
+      <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B3">
@@ -619,7 +583,7 @@
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="19" t="s">
+      <c r="A4" s="1" t="s">
         <v>3</v>
       </c>
       <c r="B4">
@@ -630,7 +594,7 @@
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="19" t="s">
+      <c r="A5" s="1" t="s">
         <v>4</v>
       </c>
       <c r="B5">
@@ -641,7 +605,7 @@
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="19" t="s">
+      <c r="A6" s="1" t="s">
         <v>5</v>
       </c>
       <c r="B6">
@@ -652,7 +616,7 @@
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="19" t="s">
+      <c r="A7" s="1" t="s">
         <v>6</v>
       </c>
       <c r="B7">
@@ -663,7 +627,7 @@
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="19" t="s">
+      <c r="A8" s="1" t="s">
         <v>7</v>
       </c>
       <c r="B8">
@@ -674,7 +638,7 @@
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="19" t="s">
+      <c r="A9" s="1" t="s">
         <v>8</v>
       </c>
       <c r="B9">
@@ -685,7 +649,7 @@
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="19" t="s">
+      <c r="A10" s="1" t="s">
         <v>9</v>
       </c>
       <c r="B10">
@@ -696,7 +660,7 @@
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="19" t="s">
+      <c r="A11" s="1" t="s">
         <v>10</v>
       </c>
       <c r="B11">
@@ -707,7 +671,7 @@
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="19" t="s">
+      <c r="A12" s="1" t="s">
         <v>11</v>
       </c>
       <c r="B12">
@@ -718,7 +682,7 @@
       </c>
     </row>
     <row r="13">
-      <c r="A13" s="19" t="s">
+      <c r="A13" s="1" t="s">
         <v>12</v>
       </c>
       <c r="B13">
@@ -729,7 +693,7 @@
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="19" t="s">
+      <c r="A14" s="1" t="s">
         <v>13</v>
       </c>
       <c r="B14">
@@ -740,7 +704,7 @@
       </c>
     </row>
     <row r="15">
-      <c r="A15" s="19" t="s">
+      <c r="A15" s="1" t="s">
         <v>14</v>
       </c>
       <c r="B15">
@@ -751,7 +715,7 @@
       </c>
     </row>
     <row r="16">
-      <c r="A16" s="19" t="s">
+      <c r="A16" s="1" t="s">
         <v>15</v>
       </c>
       <c r="B16">
@@ -762,7 +726,7 @@
       </c>
     </row>
     <row r="17">
-      <c r="A17" s="19" t="s">
+      <c r="A17" s="1" t="s">
         <v>16</v>
       </c>
       <c r="B17">
@@ -773,7 +737,7 @@
       </c>
     </row>
     <row r="18">
-      <c r="A18" s="19" t="s">
+      <c r="A18" s="1" t="s">
         <v>17</v>
       </c>
       <c r="B18">
@@ -784,7 +748,7 @@
       </c>
     </row>
     <row r="19">
-      <c r="A19" s="19" t="s">
+      <c r="A19" s="1" t="s">
         <v>18</v>
       </c>
       <c r="B19">
@@ -795,7 +759,7 @@
       </c>
     </row>
     <row r="20">
-      <c r="A20" s="19" t="s">
+      <c r="A20" s="1" t="s">
         <v>19</v>
       </c>
       <c r="B20">
@@ -806,7 +770,7 @@
       </c>
     </row>
     <row r="21">
-      <c r="A21" s="19" t="s">
+      <c r="A21" s="1" t="s">
         <v>20</v>
       </c>
       <c r="B21">
@@ -817,7 +781,7 @@
       </c>
     </row>
     <row r="22">
-      <c r="A22" s="19" t="s">
+      <c r="A22" s="1" t="s">
         <v>21</v>
       </c>
       <c r="B22">
@@ -828,7 +792,7 @@
       </c>
     </row>
     <row r="23">
-      <c r="A23" s="19" t="s">
+      <c r="A23" s="1" t="s">
         <v>22</v>
       </c>
       <c r="B23">
@@ -839,7 +803,7 @@
       </c>
     </row>
     <row r="24">
-      <c r="A24" s="19" t="s">
+      <c r="A24" s="1" t="s">
         <v>23</v>
       </c>
       <c r="B24">
@@ -850,7 +814,7 @@
       </c>
     </row>
     <row r="25">
-      <c r="A25" s="19" t="s">
+      <c r="A25" s="1" t="s">
         <v>24</v>
       </c>
       <c r="B25">
@@ -861,7 +825,7 @@
       </c>
     </row>
     <row r="26">
-      <c r="A26" s="19" t="s">
+      <c r="A26" s="1" t="s">
         <v>25</v>
       </c>
       <c r="B26">
@@ -872,7 +836,7 @@
       </c>
     </row>
     <row r="27">
-      <c r="A27" s="19" t="s">
+      <c r="A27" s="1" t="s">
         <v>26</v>
       </c>
       <c r="B27">
@@ -883,7 +847,7 @@
       </c>
     </row>
     <row r="28">
-      <c r="A28" s="19" t="s">
+      <c r="A28" s="1" t="s">
         <v>27</v>
       </c>
       <c r="B28">
@@ -894,7 +858,7 @@
       </c>
     </row>
     <row r="29">
-      <c r="A29" s="19" t="s">
+      <c r="A29" s="1" t="s">
         <v>28</v>
       </c>
       <c r="B29">
@@ -905,7 +869,7 @@
       </c>
     </row>
     <row r="30">
-      <c r="A30" s="19" t="s">
+      <c r="A30" s="1" t="s">
         <v>29</v>
       </c>
       <c r="B30">
@@ -916,7 +880,7 @@
       </c>
     </row>
     <row r="31">
-      <c r="A31" s="19" t="s">
+      <c r="A31" s="1" t="s">
         <v>30</v>
       </c>
       <c r="B31">
@@ -927,7 +891,7 @@
       </c>
     </row>
     <row r="32">
-      <c r="A32" s="19" t="s">
+      <c r="A32" s="1" t="s">
         <v>31</v>
       </c>
       <c r="B32">
@@ -938,7 +902,7 @@
       </c>
     </row>
     <row r="33">
-      <c r="A33" s="19" t="s">
+      <c r="A33" s="1" t="s">
         <v>32</v>
       </c>
       <c r="B33">
@@ -949,7 +913,7 @@
       </c>
     </row>
     <row r="34">
-      <c r="A34" s="19" t="s">
+      <c r="A34" s="1" t="s">
         <v>33</v>
       </c>
       <c r="B34">
@@ -960,7 +924,7 @@
       </c>
     </row>
     <row r="35">
-      <c r="A35" s="19" t="s">
+      <c r="A35" s="1" t="s">
         <v>34</v>
       </c>
       <c r="B35">
@@ -971,7 +935,7 @@
       </c>
     </row>
     <row r="36">
-      <c r="A36" s="19" t="s">
+      <c r="A36" s="1" t="s">
         <v>35</v>
       </c>
       <c r="B36">
@@ -982,7 +946,7 @@
       </c>
     </row>
     <row r="37">
-      <c r="A37" s="19" t="s">
+      <c r="A37" s="1" t="s">
         <v>36</v>
       </c>
       <c r="B37">
@@ -993,7 +957,7 @@
       </c>
     </row>
     <row r="38">
-      <c r="A38" s="19" t="s">
+      <c r="A38" s="1" t="s">
         <v>37</v>
       </c>
       <c r="B38">
@@ -1004,7 +968,7 @@
       </c>
     </row>
     <row r="39">
-      <c r="A39" s="19" t="s">
+      <c r="A39" s="1" t="s">
         <v>38</v>
       </c>
       <c r="B39">
@@ -1015,7 +979,7 @@
       </c>
     </row>
     <row r="40">
-      <c r="A40" s="19" t="s">
+      <c r="A40" s="1" t="s">
         <v>39</v>
       </c>
       <c r="B40">
@@ -1026,7 +990,7 @@
       </c>
     </row>
     <row r="41">
-      <c r="A41" s="19" t="s">
+      <c r="A41" s="1" t="s">
         <v>40</v>
       </c>
       <c r="B41">
@@ -1037,7 +1001,7 @@
       </c>
     </row>
     <row r="42">
-      <c r="A42" s="19" t="s">
+      <c r="A42" s="1" t="s">
         <v>41</v>
       </c>
       <c r="B42">
@@ -1048,7 +1012,7 @@
       </c>
     </row>
     <row r="43">
-      <c r="A43" s="19" t="s">
+      <c r="A43" s="1" t="s">
         <v>42</v>
       </c>
       <c r="B43">
@@ -1059,7 +1023,7 @@
       </c>
     </row>
     <row r="44">
-      <c r="A44" s="19" t="s">
+      <c r="A44" s="1" t="s">
         <v>43</v>
       </c>
       <c r="B44">
@@ -1070,7 +1034,7 @@
       </c>
     </row>
     <row r="45">
-      <c r="A45" s="19" t="s">
+      <c r="A45" s="1" t="s">
         <v>44</v>
       </c>
       <c r="B45">
@@ -1081,7 +1045,7 @@
       </c>
     </row>
     <row r="46">
-      <c r="A46" s="19" t="s">
+      <c r="A46" s="1" t="s">
         <v>45</v>
       </c>
       <c r="B46">
@@ -1092,7 +1056,7 @@
       </c>
     </row>
     <row r="47">
-      <c r="A47" s="19" t="s">
+      <c r="A47" s="1" t="s">
         <v>46</v>
       </c>
       <c r="B47">
@@ -1103,7 +1067,7 @@
       </c>
     </row>
     <row r="48">
-      <c r="A48" s="19" t="s">
+      <c r="A48" s="1" t="s">
         <v>47</v>
       </c>
       <c r="B48">
@@ -1114,7 +1078,7 @@
       </c>
     </row>
     <row r="49">
-      <c r="A49" s="19" t="s">
+      <c r="A49" s="1" t="s">
         <v>48</v>
       </c>
       <c r="B49">
@@ -1125,7 +1089,7 @@
       </c>
     </row>
     <row r="50">
-      <c r="A50" s="19" t="s">
+      <c r="A50" s="1" t="s">
         <v>49</v>
       </c>
       <c r="B50">
@@ -1136,7 +1100,7 @@
       </c>
     </row>
     <row r="51">
-      <c r="A51" s="19" t="s">
+      <c r="A51" s="1" t="s">
         <v>50</v>
       </c>
       <c r="B51">
@@ -1147,7 +1111,7 @@
       </c>
     </row>
     <row r="52">
-      <c r="A52" s="19" t="s">
+      <c r="A52" s="1" t="s">
         <v>51</v>
       </c>
       <c r="B52">
@@ -1158,7 +1122,7 @@
       </c>
     </row>
     <row r="53">
-      <c r="A53" s="19" t="s">
+      <c r="A53" s="1" t="s">
         <v>52</v>
       </c>
       <c r="B53">
@@ -1169,7 +1133,7 @@
       </c>
     </row>
     <row r="54">
-      <c r="A54" s="19" t="s">
+      <c r="A54" s="1" t="s">
         <v>53</v>
       </c>
       <c r="B54">
@@ -1180,7 +1144,7 @@
       </c>
     </row>
     <row r="55">
-      <c r="A55" s="19" t="s">
+      <c r="A55" s="1" t="s">
         <v>54</v>
       </c>
       <c r="B55">
@@ -1191,7 +1155,7 @@
       </c>
     </row>
     <row r="56">
-      <c r="A56" s="19" t="s">
+      <c r="A56" s="1" t="s">
         <v>55</v>
       </c>
       <c r="B56">
@@ -1202,7 +1166,7 @@
       </c>
     </row>
     <row r="57">
-      <c r="A57" s="19" t="s">
+      <c r="A57" s="1" t="s">
         <v>56</v>
       </c>
       <c r="B57">
@@ -1213,7 +1177,7 @@
       </c>
     </row>
     <row r="58">
-      <c r="A58" s="19" t="s">
+      <c r="A58" s="1" t="s">
         <v>57</v>
       </c>
       <c r="B58">
@@ -1224,7 +1188,7 @@
       </c>
     </row>
     <row r="59">
-      <c r="A59" s="19" t="s">
+      <c r="A59" s="1" t="s">
         <v>58</v>
       </c>
       <c r="B59">
@@ -1235,7 +1199,7 @@
       </c>
     </row>
     <row r="60">
-      <c r="A60" s="19" t="s">
+      <c r="A60" s="1" t="s">
         <v>59</v>
       </c>
       <c r="B60">
@@ -1246,7 +1210,7 @@
       </c>
     </row>
     <row r="61">
-      <c r="A61" s="19" t="s">
+      <c r="A61" s="1" t="s">
         <v>60</v>
       </c>
       <c r="B61">
@@ -1257,7 +1221,7 @@
       </c>
     </row>
     <row r="62">
-      <c r="A62" s="19" t="s">
+      <c r="A62" s="1" t="s">
         <v>61</v>
       </c>
       <c r="B62">
@@ -1268,7 +1232,7 @@
       </c>
     </row>
     <row r="63">
-      <c r="A63" s="19" t="s">
+      <c r="A63" s="1" t="s">
         <v>62</v>
       </c>
       <c r="B63">
@@ -1279,7 +1243,7 @@
       </c>
     </row>
     <row r="64">
-      <c r="A64" s="19" t="s">
+      <c r="A64" s="1" t="s">
         <v>63</v>
       </c>
       <c r="B64">
@@ -1290,7 +1254,7 @@
       </c>
     </row>
     <row r="65">
-      <c r="A65" s="19" t="s">
+      <c r="A65" s="1" t="s">
         <v>64</v>
       </c>
       <c r="B65">
@@ -1301,7 +1265,7 @@
       </c>
     </row>
     <row r="66">
-      <c r="A66" s="19" t="s">
+      <c r="A66" s="1" t="s">
         <v>65</v>
       </c>
       <c r="B66">
@@ -1312,7 +1276,7 @@
       </c>
     </row>
     <row r="67">
-      <c r="A67" s="19" t="s">
+      <c r="A67" s="1" t="s">
         <v>66</v>
       </c>
       <c r="B67">
@@ -1323,7 +1287,7 @@
       </c>
     </row>
     <row r="68">
-      <c r="A68" s="19" t="s">
+      <c r="A68" s="1" t="s">
         <v>67</v>
       </c>
       <c r="B68">
@@ -1334,7 +1298,7 @@
       </c>
     </row>
     <row r="69">
-      <c r="A69" s="19" t="s">
+      <c r="A69" s="1" t="s">
         <v>68</v>
       </c>
       <c r="B69">
@@ -1345,7 +1309,7 @@
       </c>
     </row>
     <row r="70">
-      <c r="A70" s="19" t="s">
+      <c r="A70" s="1" t="s">
         <v>69</v>
       </c>
       <c r="B70">
@@ -1356,7 +1320,7 @@
       </c>
     </row>
     <row r="71">
-      <c r="A71" s="19" t="s">
+      <c r="A71" s="1" t="s">
         <v>70</v>
       </c>
       <c r="B71">
@@ -1367,7 +1331,7 @@
       </c>
     </row>
     <row r="72">
-      <c r="A72" s="19" t="s">
+      <c r="A72" s="1" t="s">
         <v>71</v>
       </c>
       <c r="B72">
@@ -1378,7 +1342,7 @@
       </c>
     </row>
     <row r="73">
-      <c r="A73" s="19" t="s">
+      <c r="A73" s="1" t="s">
         <v>72</v>
       </c>
       <c r="B73">
@@ -1389,7 +1353,7 @@
       </c>
     </row>
     <row r="74">
-      <c r="A74" s="19" t="s">
+      <c r="A74" s="1" t="s">
         <v>73</v>
       </c>
       <c r="B74">
@@ -1400,7 +1364,7 @@
       </c>
     </row>
     <row r="75">
-      <c r="A75" s="19" t="s">
+      <c r="A75" s="1" t="s">
         <v>74</v>
       </c>
       <c r="B75">
@@ -1411,7 +1375,7 @@
       </c>
     </row>
     <row r="76">
-      <c r="A76" s="19" t="s">
+      <c r="A76" s="1" t="s">
         <v>75</v>
       </c>
       <c r="B76">
@@ -1422,7 +1386,7 @@
       </c>
     </row>
     <row r="77">
-      <c r="A77" s="19" t="s">
+      <c r="A77" s="1" t="s">
         <v>76</v>
       </c>
       <c r="B77">
@@ -1433,7 +1397,7 @@
       </c>
     </row>
     <row r="78">
-      <c r="A78" s="19" t="s">
+      <c r="A78" s="1" t="s">
         <v>77</v>
       </c>
       <c r="B78">
@@ -1444,7 +1408,7 @@
       </c>
     </row>
     <row r="79">
-      <c r="A79" s="19" t="s">
+      <c r="A79" s="1" t="s">
         <v>78</v>
       </c>
       <c r="B79">
@@ -1455,7 +1419,7 @@
       </c>
     </row>
     <row r="80">
-      <c r="A80" s="19" t="s">
+      <c r="A80" s="1" t="s">
         <v>79</v>
       </c>
       <c r="B80">
@@ -1466,7 +1430,7 @@
       </c>
     </row>
     <row r="81">
-      <c r="A81" s="19" t="s">
+      <c r="A81" s="1" t="s">
         <v>80</v>
       </c>
       <c r="B81">
@@ -1477,7 +1441,7 @@
       </c>
     </row>
     <row r="82">
-      <c r="A82" s="19" t="s">
+      <c r="A82" s="1" t="s">
         <v>81</v>
       </c>
       <c r="B82">
@@ -1488,7 +1452,7 @@
       </c>
     </row>
     <row r="83">
-      <c r="A83" s="19" t="s">
+      <c r="A83" s="1" t="s">
         <v>82</v>
       </c>
       <c r="B83">
@@ -1499,7 +1463,7 @@
       </c>
     </row>
     <row r="84">
-      <c r="A84" s="19" t="s">
+      <c r="A84" s="1" t="s">
         <v>83</v>
       </c>
       <c r="B84">
@@ -1510,7 +1474,7 @@
       </c>
     </row>
     <row r="85">
-      <c r="A85" s="19" t="s">
+      <c r="A85" s="1" t="s">
         <v>84</v>
       </c>
       <c r="B85">
@@ -1521,7 +1485,7 @@
       </c>
     </row>
     <row r="86">
-      <c r="A86" s="19" t="s">
+      <c r="A86" s="1" t="s">
         <v>85</v>
       </c>
       <c r="B86">
@@ -1532,7 +1496,7 @@
       </c>
     </row>
     <row r="87">
-      <c r="A87" s="19" t="s">
+      <c r="A87" s="1" t="s">
         <v>86</v>
       </c>
       <c r="B87">
@@ -1543,7 +1507,7 @@
       </c>
     </row>
     <row r="88">
-      <c r="A88" s="19" t="s">
+      <c r="A88" s="1" t="s">
         <v>87</v>
       </c>
       <c r="B88">
@@ -1554,7 +1518,7 @@
       </c>
     </row>
     <row r="89">
-      <c r="A89" s="19" t="s">
+      <c r="A89" s="1" t="s">
         <v>88</v>
       </c>
       <c r="B89">
@@ -1565,7 +1529,7 @@
       </c>
     </row>
     <row r="90">
-      <c r="A90" s="19" t="s">
+      <c r="A90" s="1" t="s">
         <v>89</v>
       </c>
       <c r="B90">
@@ -1576,7 +1540,7 @@
       </c>
     </row>
     <row r="91">
-      <c r="A91" s="19" t="s">
+      <c r="A91" s="1" t="s">
         <v>90</v>
       </c>
       <c r="B91">
@@ -1587,7 +1551,7 @@
       </c>
     </row>
     <row r="92">
-      <c r="A92" s="19" t="s">
+      <c r="A92" s="1" t="s">
         <v>91</v>
       </c>
       <c r="B92">
@@ -1598,7 +1562,7 @@
       </c>
     </row>
     <row r="93">
-      <c r="A93" s="19" t="s">
+      <c r="A93" s="1" t="s">
         <v>92</v>
       </c>
       <c r="B93">
@@ -1609,7 +1573,7 @@
       </c>
     </row>
     <row r="94">
-      <c r="A94" s="19" t="s">
+      <c r="A94" s="1" t="s">
         <v>93</v>
       </c>
       <c r="B94">
@@ -1620,7 +1584,7 @@
       </c>
     </row>
     <row r="95">
-      <c r="A95" s="19" t="s">
+      <c r="A95" s="1" t="s">
         <v>94</v>
       </c>
       <c r="B95">
@@ -1631,7 +1595,7 @@
       </c>
     </row>
     <row r="96">
-      <c r="A96" s="19" t="s">
+      <c r="A96" s="1" t="s">
         <v>95</v>
       </c>
       <c r="B96">
@@ -1642,7 +1606,7 @@
       </c>
     </row>
     <row r="97">
-      <c r="A97" s="19" t="s">
+      <c r="A97" s="1" t="s">
         <v>96</v>
       </c>
       <c r="B97">
@@ -1653,7 +1617,7 @@
       </c>
     </row>
     <row r="98">
-      <c r="A98" s="19" t="s">
+      <c r="A98" s="1" t="s">
         <v>97</v>
       </c>
       <c r="B98">
@@ -1664,7 +1628,7 @@
       </c>
     </row>
     <row r="99">
-      <c r="A99" s="19" t="s">
+      <c r="A99" s="1" t="s">
         <v>98</v>
       </c>
       <c r="B99">
@@ -1675,7 +1639,7 @@
       </c>
     </row>
     <row r="100">
-      <c r="A100" s="19" t="s">
+      <c r="A100" s="1" t="s">
         <v>99</v>
       </c>
       <c r="B100">
@@ -1686,7 +1650,7 @@
       </c>
     </row>
     <row r="101">
-      <c r="A101" s="19" t="s">
+      <c r="A101" s="1" t="s">
         <v>100</v>
       </c>
       <c r="B101">
@@ -1697,7 +1661,7 @@
       </c>
     </row>
     <row r="102">
-      <c r="A102" s="19" t="s">
+      <c r="A102" s="1" t="s">
         <v>101</v>
       </c>
       <c r="B102">
@@ -1708,7 +1672,7 @@
       </c>
     </row>
     <row r="103">
-      <c r="A103" s="19" t="s">
+      <c r="A103" s="1" t="s">
         <v>102</v>
       </c>
       <c r="B103">
@@ -1719,7 +1683,7 @@
       </c>
     </row>
     <row r="104">
-      <c r="A104" s="19" t="s">
+      <c r="A104" s="1" t="s">
         <v>103</v>
       </c>
       <c r="B104">
@@ -1730,7 +1694,7 @@
       </c>
     </row>
     <row r="105">
-      <c r="A105" s="19" t="s">
+      <c r="A105" s="1" t="s">
         <v>104</v>
       </c>
       <c r="B105">
@@ -1741,7 +1705,7 @@
       </c>
     </row>
     <row r="106">
-      <c r="A106" s="19" t="s">
+      <c r="A106" s="1" t="s">
         <v>105</v>
       </c>
       <c r="B106">
@@ -1752,7 +1716,7 @@
       </c>
     </row>
     <row r="107">
-      <c r="A107" s="19" t="s">
+      <c r="A107" s="1" t="s">
         <v>106</v>
       </c>
       <c r="B107">
@@ -1763,7 +1727,7 @@
       </c>
     </row>
     <row r="108">
-      <c r="A108" s="19" t="s">
+      <c r="A108" s="1" t="s">
         <v>107</v>
       </c>
       <c r="B108">
@@ -1774,7 +1738,7 @@
       </c>
     </row>
     <row r="109">
-      <c r="A109" s="19" t="s">
+      <c r="A109" s="1" t="s">
         <v>108</v>
       </c>
       <c r="B109">
@@ -1785,7 +1749,7 @@
       </c>
     </row>
     <row r="110">
-      <c r="A110" s="19" t="s">
+      <c r="A110" s="1" t="s">
         <v>109</v>
       </c>
       <c r="B110">
@@ -1796,7 +1760,7 @@
       </c>
     </row>
     <row r="111">
-      <c r="A111" s="19" t="s">
+      <c r="A111" s="1" t="s">
         <v>110</v>
       </c>
       <c r="B111">
@@ -1807,7 +1771,7 @@
       </c>
     </row>
     <row r="112">
-      <c r="A112" s="19" t="s">
+      <c r="A112" s="1" t="s">
         <v>111</v>
       </c>
       <c r="B112">
@@ -1818,7 +1782,7 @@
       </c>
     </row>
     <row r="113">
-      <c r="A113" s="19" t="s">
+      <c r="A113" s="1" t="s">
         <v>112</v>
       </c>
       <c r="B113">
@@ -1829,7 +1793,7 @@
       </c>
     </row>
     <row r="114">
-      <c r="A114" s="19" t="s">
+      <c r="A114" s="1" t="s">
         <v>113</v>
       </c>
       <c r="B114">
@@ -1840,7 +1804,7 @@
       </c>
     </row>
     <row r="115">
-      <c r="A115" s="19" t="s">
+      <c r="A115" s="1" t="s">
         <v>114</v>
       </c>
       <c r="B115">
@@ -1851,7 +1815,7 @@
       </c>
     </row>
     <row r="116">
-      <c r="A116" s="19" t="s">
+      <c r="A116" s="1" t="s">
         <v>115</v>
       </c>
       <c r="B116">
@@ -1862,7 +1826,7 @@
       </c>
     </row>
     <row r="117">
-      <c r="A117" s="19" t="s">
+      <c r="A117" s="1" t="s">
         <v>116</v>
       </c>
       <c r="B117">
@@ -1873,7 +1837,7 @@
       </c>
     </row>
     <row r="118">
-      <c r="A118" s="19" t="s">
+      <c r="A118" s="1" t="s">
         <v>117</v>
       </c>
       <c r="B118">
@@ -1884,7 +1848,7 @@
       </c>
     </row>
     <row r="119">
-      <c r="A119" s="19" t="s">
+      <c r="A119" s="1" t="s">
         <v>118</v>
       </c>
       <c r="B119">
@@ -1895,7 +1859,7 @@
       </c>
     </row>
     <row r="120">
-      <c r="A120" s="19" t="s">
+      <c r="A120" s="1" t="s">
         <v>119</v>
       </c>
       <c r="B120">
@@ -1906,7 +1870,7 @@
       </c>
     </row>
     <row r="121">
-      <c r="A121" s="19" t="s">
+      <c r="A121" s="1" t="s">
         <v>120</v>
       </c>
       <c r="B121">
@@ -1917,7 +1881,7 @@
       </c>
     </row>
     <row r="122">
-      <c r="A122" s="19" t="s">
+      <c r="A122" s="1" t="s">
         <v>121</v>
       </c>
       <c r="B122">
@@ -1928,7 +1892,7 @@
       </c>
     </row>
     <row r="123">
-      <c r="A123" s="19" t="s">
+      <c r="A123" s="1" t="s">
         <v>122</v>
       </c>
       <c r="B123">
@@ -1939,7 +1903,7 @@
       </c>
     </row>
     <row r="124">
-      <c r="A124" s="19" t="s">
+      <c r="A124" s="1" t="s">
         <v>123</v>
       </c>
       <c r="B124">
@@ -1950,7 +1914,7 @@
       </c>
     </row>
     <row r="125">
-      <c r="A125" s="19" t="s">
+      <c r="A125" s="1" t="s">
         <v>124</v>
       </c>
       <c r="B125">
@@ -1961,7 +1925,7 @@
       </c>
     </row>
     <row r="126">
-      <c r="A126" s="19" t="s">
+      <c r="A126" s="1" t="s">
         <v>125</v>
       </c>
       <c r="B126">
@@ -1972,7 +1936,7 @@
       </c>
     </row>
     <row r="127">
-      <c r="A127" s="19" t="s">
+      <c r="A127" s="1" t="s">
         <v>126</v>
       </c>
       <c r="B127">
@@ -1983,7 +1947,7 @@
       </c>
     </row>
     <row r="128">
-      <c r="A128" s="19" t="s">
+      <c r="A128" s="1" t="s">
         <v>127</v>
       </c>
       <c r="B128">
@@ -1994,7 +1958,7 @@
       </c>
     </row>
     <row r="129">
-      <c r="A129" s="19" t="s">
+      <c r="A129" s="1" t="s">
         <v>128</v>
       </c>
       <c r="B129">
@@ -2005,7 +1969,7 @@
       </c>
     </row>
     <row r="130">
-      <c r="A130" s="19" t="s">
+      <c r="A130" s="1" t="s">
         <v>129</v>
       </c>
       <c r="B130">
@@ -2016,7 +1980,7 @@
       </c>
     </row>
     <row r="131">
-      <c r="A131" s="19" t="s">
+      <c r="A131" s="1" t="s">
         <v>130</v>
       </c>
       <c r="B131">
@@ -2027,7 +1991,7 @@
       </c>
     </row>
     <row r="132">
-      <c r="A132" s="19" t="s">
+      <c r="A132" s="1" t="s">
         <v>131</v>
       </c>
       <c r="B132">
@@ -2038,7 +2002,7 @@
       </c>
     </row>
     <row r="133">
-      <c r="A133" s="19" t="s">
+      <c r="A133" s="1" t="s">
         <v>132</v>
       </c>
       <c r="B133">
@@ -2049,7 +2013,7 @@
       </c>
     </row>
     <row r="134">
-      <c r="A134" s="19" t="s">
+      <c r="A134" s="1" t="s">
         <v>133</v>
       </c>
       <c r="B134">
@@ -2060,7 +2024,7 @@
       </c>
     </row>
     <row r="135">
-      <c r="A135" s="19" t="s">
+      <c r="A135" s="1" t="s">
         <v>134</v>
       </c>
       <c r="B135">
@@ -2071,7 +2035,7 @@
       </c>
     </row>
     <row r="136">
-      <c r="A136" s="19" t="s">
+      <c r="A136" s="1" t="s">
         <v>135</v>
       </c>
       <c r="B136">
@@ -2082,7 +2046,7 @@
       </c>
     </row>
     <row r="137">
-      <c r="A137" s="19" t="s">
+      <c r="A137" s="1" t="s">
         <v>136</v>
       </c>
       <c r="B137">
@@ -2093,7 +2057,7 @@
       </c>
     </row>
     <row r="138">
-      <c r="A138" s="19" t="s">
+      <c r="A138" s="1" t="s">
         <v>137</v>
       </c>
       <c r="B138">
@@ -2104,7 +2068,7 @@
       </c>
     </row>
     <row r="139">
-      <c r="A139" s="19" t="s">
+      <c r="A139" s="1" t="s">
         <v>138</v>
       </c>
       <c r="B139">
@@ -2115,7 +2079,7 @@
       </c>
     </row>
     <row r="140">
-      <c r="A140" s="19" t="s">
+      <c r="A140" s="1" t="s">
         <v>139</v>
       </c>
       <c r="B140">
@@ -2126,7 +2090,7 @@
       </c>
     </row>
     <row r="141">
-      <c r="A141" s="19" t="s">
+      <c r="A141" s="1" t="s">
         <v>140</v>
       </c>
       <c r="B141">
@@ -2137,7 +2101,7 @@
       </c>
     </row>
     <row r="142">
-      <c r="A142" s="19" t="s">
+      <c r="A142" s="1" t="s">
         <v>141</v>
       </c>
       <c r="B142">
@@ -2148,7 +2112,7 @@
       </c>
     </row>
     <row r="143">
-      <c r="A143" s="19" t="s">
+      <c r="A143" s="1" t="s">
         <v>142</v>
       </c>
       <c r="B143">
@@ -2159,7 +2123,7 @@
       </c>
     </row>
     <row r="144">
-      <c r="A144" s="19" t="s">
+      <c r="A144" s="1" t="s">
         <v>143</v>
       </c>
       <c r="B144">
@@ -2170,7 +2134,7 @@
       </c>
     </row>
     <row r="145">
-      <c r="A145" s="19" t="s">
+      <c r="A145" s="1" t="s">
         <v>144</v>
       </c>
       <c r="B145">
@@ -2181,7 +2145,7 @@
       </c>
     </row>
     <row r="146">
-      <c r="A146" s="19" t="s">
+      <c r="A146" s="1" t="s">
         <v>145</v>
       </c>
       <c r="B146">
@@ -2192,7 +2156,7 @@
       </c>
     </row>
     <row r="147">
-      <c r="A147" s="19" t="s">
+      <c r="A147" s="1" t="s">
         <v>146</v>
       </c>
       <c r="B147">
@@ -2203,7 +2167,7 @@
       </c>
     </row>
     <row r="148">
-      <c r="A148" s="19" t="s">
+      <c r="A148" s="1" t="s">
         <v>147</v>
       </c>
       <c r="B148">
@@ -2214,7 +2178,7 @@
       </c>
     </row>
     <row r="149">
-      <c r="A149" s="19" t="s">
+      <c r="A149" s="1" t="s">
         <v>148</v>
       </c>
       <c r="B149">
@@ -2225,7 +2189,7 @@
       </c>
     </row>
     <row r="150">
-      <c r="A150" s="19" t="s">
+      <c r="A150" s="1" t="s">
         <v>149</v>
       </c>
       <c r="B150">
@@ -2236,7 +2200,7 @@
       </c>
     </row>
     <row r="151">
-      <c r="A151" s="19" t="s">
+      <c r="A151" s="1" t="s">
         <v>150</v>
       </c>
       <c r="B151">
@@ -2247,7 +2211,7 @@
       </c>
     </row>
     <row r="152">
-      <c r="A152" s="19" t="s">
+      <c r="A152" s="1" t="s">
         <v>151</v>
       </c>
       <c r="B152">
@@ -2258,7 +2222,7 @@
       </c>
     </row>
     <row r="153">
-      <c r="A153" s="19" t="s">
+      <c r="A153" s="1" t="s">
         <v>152</v>
       </c>
       <c r="B153">
@@ -2269,7 +2233,7 @@
       </c>
     </row>
     <row r="154">
-      <c r="A154" s="19" t="s">
+      <c r="A154" s="1" t="s">
         <v>153</v>
       </c>
       <c r="B154">
@@ -2280,7 +2244,7 @@
       </c>
     </row>
     <row r="155">
-      <c r="A155" s="19" t="s">
+      <c r="A155" s="1" t="s">
         <v>154</v>
       </c>
       <c r="B155">
@@ -2291,7 +2255,7 @@
       </c>
     </row>
     <row r="156">
-      <c r="A156" s="19" t="s">
+      <c r="A156" s="1" t="s">
         <v>155</v>
       </c>
       <c r="B156">
@@ -2302,7 +2266,7 @@
       </c>
     </row>
     <row r="157">
-      <c r="A157" s="19" t="s">
+      <c r="A157" s="1" t="s">
         <v>156</v>
       </c>
       <c r="B157">
@@ -2313,7 +2277,7 @@
       </c>
     </row>
     <row r="158">
-      <c r="A158" s="19" t="s">
+      <c r="A158" s="1" t="s">
         <v>157</v>
       </c>
       <c r="B158">

--- a/outputs-HGR-r202/test-o__Acidaminococcales_split_pruned.xlsx
+++ b/outputs-HGR-r202/test-o__Acidaminococcales_split_pruned.xlsx
@@ -14,38 +14,113 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="170" uniqueCount="170">
   <si>
     <t>Row</t>
   </si>
   <si>
+    <t>even_MAG-GUT10270.fa</t>
+  </si>
+  <si>
+    <t>even_MAG-GUT10398.fa</t>
+  </si>
+  <si>
+    <t>even_MAG-GUT10625.fa</t>
+  </si>
+  <si>
     <t>even_MAG-GUT11036.fa</t>
   </si>
   <si>
+    <t>even_MAG-GUT11210.fa</t>
+  </si>
+  <si>
+    <t>even_MAG-GUT11332.fa</t>
+  </si>
+  <si>
+    <t>even_MAG-GUT11435.fa</t>
+  </si>
+  <si>
+    <t>even_MAG-GUT13045.fa</t>
+  </si>
+  <si>
+    <t>even_MAG-GUT14741.fa</t>
+  </si>
+  <si>
+    <t>even_MAG-GUT15742.fa</t>
+  </si>
+  <si>
+    <t>even_MAG-GUT1677.fa</t>
+  </si>
+  <si>
+    <t>even_MAG-GUT17255.fa</t>
+  </si>
+  <si>
     <t>even_MAG-GUT17473.fa</t>
   </si>
   <si>
+    <t>even_MAG-GUT17515.fa</t>
+  </si>
+  <si>
+    <t>even_MAG-GUT20287.fa</t>
+  </si>
+  <si>
+    <t>even_MAG-GUT20540.fa</t>
+  </si>
+  <si>
+    <t>even_MAG-GUT20603.fa</t>
+  </si>
+  <si>
     <t>even_MAG-GUT20639.fa</t>
   </si>
   <si>
+    <t>even_MAG-GUT2203.fa</t>
+  </si>
+  <si>
     <t>even_MAG-GUT23387.fa</t>
   </si>
   <si>
+    <t>even_MAG-GUT24052.fa</t>
+  </si>
+  <si>
+    <t>even_MAG-GUT25048.fa</t>
+  </si>
+  <si>
+    <t>even_MAG-GUT25340.fa</t>
+  </si>
+  <si>
     <t>even_MAG-GUT25650.fa</t>
   </si>
   <si>
     <t>even_MAG-GUT2865.fa</t>
   </si>
   <si>
+    <t>even_MAG-GUT29189.fa</t>
+  </si>
+  <si>
+    <t>even_MAG-GUT29214.fa</t>
+  </si>
+  <si>
+    <t>even_MAG-GUT29221.fa</t>
+  </si>
+  <si>
+    <t>even_MAG-GUT29476.fa</t>
+  </si>
+  <si>
     <t>even_MAG-GUT29878.fa</t>
   </si>
   <si>
     <t>even_MAG-GUT31785.fa</t>
   </si>
   <si>
+    <t>even_MAG-GUT32691.fa</t>
+  </si>
+  <si>
     <t>even_MAG-GUT33530.fa</t>
   </si>
   <si>
+    <t>even_MAG-GUT33657.fa</t>
+  </si>
+  <si>
     <t>even_MAG-GUT34206.fa</t>
   </si>
   <si>
@@ -61,9 +136,30 @@
     <t>even_MAG-GUT35231.fa</t>
   </si>
   <si>
+    <t>even_MAG-GUT37976.fa</t>
+  </si>
+  <si>
+    <t>even_MAG-GUT43152.fa</t>
+  </si>
+  <si>
+    <t>even_MAG-GUT43233.fa</t>
+  </si>
+  <si>
     <t>even_MAG-GUT43248.fa</t>
   </si>
   <si>
+    <t>even_MAG-GUT43329.fa</t>
+  </si>
+  <si>
+    <t>even_MAG-GUT43835.fa</t>
+  </si>
+  <si>
+    <t>even_MAG-GUT45903.fa</t>
+  </si>
+  <si>
+    <t>even_MAG-GUT47875.fa</t>
+  </si>
+  <si>
     <t>even_MAG-GUT51748.fa</t>
   </si>
   <si>
@@ -73,37 +169,355 @@
     <t>even_MAG-GUT51926.fa</t>
   </si>
   <si>
+    <t>even_MAG-GUT51928.fa</t>
+  </si>
+  <si>
+    <t>even_MAG-GUT5341.fa</t>
+  </si>
+  <si>
+    <t>even_MAG-GUT56559.fa</t>
+  </si>
+  <si>
+    <t>even_MAG-GUT56604.fa</t>
+  </si>
+  <si>
     <t>even_MAG-GUT5676.fa</t>
   </si>
   <si>
+    <t>even_MAG-GUT57066.fa</t>
+  </si>
+  <si>
+    <t>even_MAG-GUT57190.fa</t>
+  </si>
+  <si>
+    <t>even_MAG-GUT57346.fa</t>
+  </si>
+  <si>
+    <t>even_MAG-GUT57398.fa</t>
+  </si>
+  <si>
+    <t>even_MAG-GUT57498.fa</t>
+  </si>
+  <si>
+    <t>even_MAG-GUT57542.fa</t>
+  </si>
+  <si>
+    <t>even_MAG-GUT57592.fa</t>
+  </si>
+  <si>
+    <t>even_MAG-GUT57771.fa</t>
+  </si>
+  <si>
+    <t>even_MAG-GUT57988.fa</t>
+  </si>
+  <si>
+    <t>even_MAG-GUT58133.fa</t>
+  </si>
+  <si>
+    <t>even_MAG-GUT58310.fa</t>
+  </si>
+  <si>
+    <t>even_MAG-GUT58672.fa</t>
+  </si>
+  <si>
+    <t>even_MAG-GUT59502.fa</t>
+  </si>
+  <si>
+    <t>even_MAG-GUT59576.fa</t>
+  </si>
+  <si>
+    <t>even_MAG-GUT5959.fa</t>
+  </si>
+  <si>
+    <t>even_MAG-GUT59626.fa</t>
+  </si>
+  <si>
+    <t>even_MAG-GUT60077.fa</t>
+  </si>
+  <si>
+    <t>even_MAG-GUT60123.fa</t>
+  </si>
+  <si>
+    <t>even_MAG-GUT60157.fa</t>
+  </si>
+  <si>
+    <t>even_MAG-GUT60320.fa</t>
+  </si>
+  <si>
+    <t>even_MAG-GUT60370.fa</t>
+  </si>
+  <si>
+    <t>even_MAG-GUT60466.fa</t>
+  </si>
+  <si>
+    <t>even_MAG-GUT60605.fa</t>
+  </si>
+  <si>
+    <t>even_MAG-GUT60882.fa</t>
+  </si>
+  <si>
+    <t>even_MAG-GUT60999.fa</t>
+  </si>
+  <si>
+    <t>even_MAG-GUT61376.fa</t>
+  </si>
+  <si>
+    <t>even_MAG-GUT61623.fa</t>
+  </si>
+  <si>
+    <t>even_MAG-GUT61658.fa</t>
+  </si>
+  <si>
     <t>even_MAG-GUT61708.fa</t>
   </si>
   <si>
     <t>even_MAG-GUT61749.fa</t>
   </si>
   <si>
+    <t>even_MAG-GUT61937.fa</t>
+  </si>
+  <si>
+    <t>even_MAG-GUT62054.fa</t>
+  </si>
+  <si>
+    <t>even_MAG-GUT62117.fa</t>
+  </si>
+  <si>
     <t>even_MAG-GUT62393.fa</t>
   </si>
   <si>
+    <t>even_MAG-GUT62444.fa</t>
+  </si>
+  <si>
+    <t>even_MAG-GUT62509.fa</t>
+  </si>
+  <si>
+    <t>even_MAG-GUT62666.fa</t>
+  </si>
+  <si>
+    <t>even_MAG-GUT6679.fa</t>
+  </si>
+  <si>
+    <t>even_MAG-GUT69771.fa</t>
+  </si>
+  <si>
+    <t>even_MAG-GUT7031.fa</t>
+  </si>
+  <si>
+    <t>even_MAG-GUT7040.fa</t>
+  </si>
+  <si>
+    <t>even_MAG-GUT72119.fa</t>
+  </si>
+  <si>
+    <t>even_MAG-GUT72127.fa</t>
+  </si>
+  <si>
+    <t>even_MAG-GUT74329.fa</t>
+  </si>
+  <si>
+    <t>even_MAG-GUT74380.fa</t>
+  </si>
+  <si>
+    <t>even_MAG-GUT75402.fa</t>
+  </si>
+  <si>
+    <t>even_MAG-GUT75430.fa</t>
+  </si>
+  <si>
+    <t>even_MAG-GUT75522.fa</t>
+  </si>
+  <si>
+    <t>even_MAG-GUT79350.fa</t>
+  </si>
+  <si>
     <t>even_MAG-GUT80385.fa</t>
   </si>
   <si>
     <t>even_MAG-GUT80453.fa</t>
   </si>
   <si>
+    <t>even_MAG-GUT80718.fa</t>
+  </si>
+  <si>
     <t>even_MAG-GUT80771.fa</t>
   </si>
   <si>
+    <t>even_MAG-GUT80816.fa</t>
+  </si>
+  <si>
+    <t>even_MAG-GUT81679.fa</t>
+  </si>
+  <si>
+    <t>even_MAG-GUT81926.fa</t>
+  </si>
+  <si>
     <t>even_MAG-GUT81946.fa</t>
   </si>
   <si>
+    <t>even_MAG-GUT81987.fa</t>
+  </si>
+  <si>
+    <t>even_MAG-GUT82039.fa</t>
+  </si>
+  <si>
+    <t>even_MAG-GUT82105.fa</t>
+  </si>
+  <si>
+    <t>even_MAG-GUT82160.fa</t>
+  </si>
+  <si>
+    <t>even_MAG-GUT82436.fa</t>
+  </si>
+  <si>
+    <t>even_MAG-GUT82468.fa</t>
+  </si>
+  <si>
+    <t>even_MAG-GUT82509.fa</t>
+  </si>
+  <si>
+    <t>even_MAG-GUT82562.fa</t>
+  </si>
+  <si>
+    <t>even_MAG-GUT82635.fa</t>
+  </si>
+  <si>
+    <t>even_MAG-GUT82654.fa</t>
+  </si>
+  <si>
+    <t>even_MAG-GUT82703.fa</t>
+  </si>
+  <si>
+    <t>even_MAG-GUT82738.fa</t>
+  </si>
+  <si>
+    <t>even_MAG-GUT82744.fa</t>
+  </si>
+  <si>
+    <t>even_MAG-GUT84598.fa</t>
+  </si>
+  <si>
+    <t>even_MAG-GUT84613.fa</t>
+  </si>
+  <si>
+    <t>even_MAG-GUT85104.fa</t>
+  </si>
+  <si>
     <t>even_MAG-GUT85904.fa</t>
   </si>
   <si>
     <t>even_MAG-GUT85919.fa</t>
   </si>
   <si>
+    <t>even_MAG-GUT86870.fa</t>
+  </si>
+  <si>
+    <t>even_MAG-GUT87479.fa</t>
+  </si>
+  <si>
+    <t>even_MAG-GUT87575.fa</t>
+  </si>
+  <si>
+    <t>even_MAG-GUT87833.fa</t>
+  </si>
+  <si>
+    <t>even_MAG-GUT88081.fa</t>
+  </si>
+  <si>
     <t>even_MAG-GUT88255.fa</t>
+  </si>
+  <si>
+    <t>even_MAG-GUT88680.fa</t>
+  </si>
+  <si>
+    <t>even_MAG-GUT88995.fa</t>
+  </si>
+  <si>
+    <t>even_MAG-GUT89180.fa</t>
+  </si>
+  <si>
+    <t>even_MAG-GUT89206.fa</t>
+  </si>
+  <si>
+    <t>even_MAG-GUT89239.fa</t>
+  </si>
+  <si>
+    <t>even_MAG-GUT89279.fa</t>
+  </si>
+  <si>
+    <t>even_MAG-GUT89290.fa</t>
+  </si>
+  <si>
+    <t>even_MAG-GUT89315.fa</t>
+  </si>
+  <si>
+    <t>even_MAG-GUT89344.fa</t>
+  </si>
+  <si>
+    <t>even_MAG-GUT89353.fa</t>
+  </si>
+  <si>
+    <t>even_MAG-GUT89416.fa</t>
+  </si>
+  <si>
+    <t>even_MAG-GUT89571.fa</t>
+  </si>
+  <si>
+    <t>even_MAG-GUT89719.fa</t>
+  </si>
+  <si>
+    <t>even_MAG-GUT89868.fa</t>
+  </si>
+  <si>
+    <t>even_MAG-GUT89896.fa</t>
+  </si>
+  <si>
+    <t>even_MAG-GUT90087.fa</t>
+  </si>
+  <si>
+    <t>even_MAG-GUT90109.fa</t>
+  </si>
+  <si>
+    <t>even_MAG-GUT90165.fa</t>
+  </si>
+  <si>
+    <t>even_MAG-GUT90191.fa</t>
+  </si>
+  <si>
+    <t>even_MAG-GUT90290.fa</t>
+  </si>
+  <si>
+    <t>even_MAG-GUT90323.fa</t>
+  </si>
+  <si>
+    <t>even_MAG-GUT90479.fa</t>
+  </si>
+  <si>
+    <t>even_MAG-GUT90502.fa</t>
+  </si>
+  <si>
+    <t>even_MAG-GUT90506.fa</t>
+  </si>
+  <si>
+    <t>even_MAG-GUT90686.fa</t>
+  </si>
+  <si>
+    <t>even_MAG-GUT90699.fa</t>
+  </si>
+  <si>
+    <t>even_MAG-GUT90976.fa</t>
+  </si>
+  <si>
+    <t>even_MAG-GUT91042.fa</t>
+  </si>
+  <si>
+    <t>even_MAG-GUT91118.fa</t>
+  </si>
+  <si>
+    <t>even_MAG-GUT91137.fa</t>
+  </si>
+  <si>
+    <t>even_MAG-GUT9659.fa</t>
   </si>
   <si>
     <t>1-f__Acidaminococcaceae</t>
@@ -157,7 +571,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C30"/>
+  <dimension ref="A1:C168"/>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="22.42578125" customWidth="true"/>
@@ -170,10 +584,10 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>30</v>
+        <v>168</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>31</v>
+        <v>169</v>
       </c>
     </row>
     <row r="2">
@@ -181,7 +595,7 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>20635.73682138303</v>
+        <v>33761.901888296532</v>
       </c>
       <c r="C2">
         <v>1</v>
@@ -192,7 +606,7 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>40498.81471219247</v>
+        <v>41398.852673195812</v>
       </c>
       <c r="C3">
         <v>1</v>
@@ -203,7 +617,7 @@
         <v>3</v>
       </c>
       <c r="B4">
-        <v>23714.90007790297</v>
+        <v>20294.441324124517</v>
       </c>
       <c r="C4">
         <v>1</v>
@@ -214,7 +628,7 @@
         <v>4</v>
       </c>
       <c r="B5">
-        <v>18225.064381868884</v>
+        <v>20635.73682138303</v>
       </c>
       <c r="C5">
         <v>1</v>
@@ -225,7 +639,7 @@
         <v>5</v>
       </c>
       <c r="B6">
-        <v>24057.825975586737</v>
+        <v>47050.795277378566</v>
       </c>
       <c r="C6">
         <v>1</v>
@@ -236,7 +650,7 @@
         <v>6</v>
       </c>
       <c r="B7">
-        <v>20729.051810942787</v>
+        <v>37831.274812427437</v>
       </c>
       <c r="C7">
         <v>1</v>
@@ -247,7 +661,7 @@
         <v>7</v>
       </c>
       <c r="B8">
-        <v>17058.906002364467</v>
+        <v>23805.972493309491</v>
       </c>
       <c r="C8">
         <v>1</v>
@@ -258,7 +672,7 @@
         <v>8</v>
       </c>
       <c r="B9">
-        <v>20975.410045154065</v>
+        <v>33269.521183912802</v>
       </c>
       <c r="C9">
         <v>1</v>
@@ -269,7 +683,7 @@
         <v>9</v>
       </c>
       <c r="B10">
-        <v>17345.210245339775</v>
+        <v>33269.521183912802</v>
       </c>
       <c r="C10">
         <v>1</v>
@@ -280,7 +694,7 @@
         <v>10</v>
       </c>
       <c r="B11">
-        <v>27171.376328810595</v>
+        <v>28200.836350389556</v>
       </c>
       <c r="C11">
         <v>1</v>
@@ -291,7 +705,7 @@
         <v>11</v>
       </c>
       <c r="B12">
-        <v>27680.46775989352</v>
+        <v>31202.006466498311</v>
       </c>
       <c r="C12">
         <v>1</v>
@@ -302,7 +716,7 @@
         <v>12</v>
       </c>
       <c r="B13">
-        <v>32778.506343622168</v>
+        <v>39832.479534257684</v>
       </c>
       <c r="C13">
         <v>1</v>
@@ -313,7 +727,7 @@
         <v>13</v>
       </c>
       <c r="B14">
-        <v>27680.46775989352</v>
+        <v>40498.81471219247</v>
       </c>
       <c r="C14">
         <v>1</v>
@@ -324,7 +738,7 @@
         <v>14</v>
       </c>
       <c r="B15">
-        <v>26802.117753919916</v>
+        <v>37520.657956701121</v>
       </c>
       <c r="C15">
         <v>1</v>
@@ -335,7 +749,7 @@
         <v>15</v>
       </c>
       <c r="B16">
-        <v>46331.372348461111</v>
+        <v>39367.632050026077</v>
       </c>
       <c r="C16">
         <v>1</v>
@@ -346,7 +760,7 @@
         <v>16</v>
       </c>
       <c r="B17">
-        <v>27758.635655024311</v>
+        <v>31940.938533600132</v>
       </c>
       <c r="C17">
         <v>1</v>
@@ -357,7 +771,7 @@
         <v>17</v>
       </c>
       <c r="B18">
-        <v>25471.194682165547</v>
+        <v>35138.695956433759</v>
       </c>
       <c r="C18">
         <v>1</v>
@@ -368,7 +782,7 @@
         <v>18</v>
       </c>
       <c r="B19">
-        <v>45113.805772148073</v>
+        <v>23714.90007790297</v>
       </c>
       <c r="C19">
         <v>1</v>
@@ -379,7 +793,7 @@
         <v>19</v>
       </c>
       <c r="B20">
-        <v>29684.448801554132</v>
+        <v>37738.26146697998</v>
       </c>
       <c r="C20">
         <v>1</v>
@@ -390,7 +804,7 @@
         <v>20</v>
       </c>
       <c r="B21">
-        <v>26895.83658708481</v>
+        <v>18225.064381868884</v>
       </c>
       <c r="C21">
         <v>1</v>
@@ -401,7 +815,7 @@
         <v>21</v>
       </c>
       <c r="B22">
-        <v>27829.56861464227</v>
+        <v>32660.622931255686</v>
       </c>
       <c r="C22">
         <v>1</v>
@@ -412,7 +826,7 @@
         <v>22</v>
       </c>
       <c r="B23">
-        <v>27847.01684544174</v>
+        <v>33014.789652200125</v>
       </c>
       <c r="C23">
         <v>1</v>
@@ -423,7 +837,7 @@
         <v>23</v>
       </c>
       <c r="B24">
-        <v>17359.041183041154</v>
+        <v>33020.856389657216</v>
       </c>
       <c r="C24">
         <v>1</v>
@@ -434,7 +848,7 @@
         <v>24</v>
       </c>
       <c r="B25">
-        <v>42679.617257571343</v>
+        <v>24057.825975586737</v>
       </c>
       <c r="C25">
         <v>1</v>
@@ -445,7 +859,7 @@
         <v>25</v>
       </c>
       <c r="B26">
-        <v>39381.385369783413</v>
+        <v>20729.051810942787</v>
       </c>
       <c r="C26">
         <v>1</v>
@@ -456,7 +870,7 @@
         <v>26</v>
       </c>
       <c r="B27">
-        <v>38249.806506617373</v>
+        <v>29847.28903130539</v>
       </c>
       <c r="C27">
         <v>1</v>
@@ -467,7 +881,7 @@
         <v>27</v>
       </c>
       <c r="B28">
-        <v>24025.638179729471</v>
+        <v>32306.847102126205</v>
       </c>
       <c r="C28">
         <v>1</v>
@@ -478,7 +892,7 @@
         <v>28</v>
       </c>
       <c r="B29">
-        <v>22081.740414050717</v>
+        <v>29787.725791887631</v>
       </c>
       <c r="C29">
         <v>1</v>
@@ -489,9 +903,1527 @@
         <v>29</v>
       </c>
       <c r="B30">
+        <v>41031.006804096076</v>
+      </c>
+      <c r="C30">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B31">
+        <v>17058.906002364467</v>
+      </c>
+      <c r="C31">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B32">
+        <v>20975.410045154065</v>
+      </c>
+      <c r="C32">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B33">
+        <v>28801.097154515028</v>
+      </c>
+      <c r="C33">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B34">
+        <v>17345.210245339775</v>
+      </c>
+      <c r="C34">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B35">
+        <v>31399.932810423987</v>
+      </c>
+      <c r="C35">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B36">
+        <v>27171.376328810595</v>
+      </c>
+      <c r="C36">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B37">
+        <v>27680.46775989352</v>
+      </c>
+      <c r="C37">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B38">
+        <v>32778.506343622168</v>
+      </c>
+      <c r="C38">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B39">
+        <v>27680.46775989352</v>
+      </c>
+      <c r="C39">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B40">
+        <v>26802.117753919916</v>
+      </c>
+      <c r="C40">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B41">
+        <v>38865.893684203809</v>
+      </c>
+      <c r="C41">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B42">
+        <v>41470.569828189866</v>
+      </c>
+      <c r="C42">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B43">
+        <v>32086.363904946618</v>
+      </c>
+      <c r="C43">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B44">
+        <v>46331.372348461111</v>
+      </c>
+      <c r="C44">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B45">
+        <v>40533.459785764193</v>
+      </c>
+      <c r="C45">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B46">
+        <v>40245.463644812146</v>
+      </c>
+      <c r="C46">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B47">
+        <v>43552.955075216421</v>
+      </c>
+      <c r="C47">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B48">
+        <v>37635.685119755828</v>
+      </c>
+      <c r="C48">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B49">
+        <v>27758.635655024311</v>
+      </c>
+      <c r="C49">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B50">
+        <v>25471.194682165547</v>
+      </c>
+      <c r="C50">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B51">
+        <v>45113.805772148073</v>
+      </c>
+      <c r="C51">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B52">
+        <v>43574.699638304461</v>
+      </c>
+      <c r="C52">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="B53">
+        <v>27017.007231062187</v>
+      </c>
+      <c r="C53">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="B54">
+        <v>37737.294042691181</v>
+      </c>
+      <c r="C54">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B55">
+        <v>31280.724526515904</v>
+      </c>
+      <c r="C55">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="B56">
+        <v>29684.448801554132</v>
+      </c>
+      <c r="C56">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="B57">
+        <v>33280.457996465833</v>
+      </c>
+      <c r="C57">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="B58">
+        <v>28706.117901219197</v>
+      </c>
+      <c r="C58">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="B59">
+        <v>31280.724526515904</v>
+      </c>
+      <c r="C59">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="B60">
+        <v>31924.681314365367</v>
+      </c>
+      <c r="C60">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="B61">
+        <v>33333.537990300363</v>
+      </c>
+      <c r="C61">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="B62">
+        <v>38672.792250745493</v>
+      </c>
+      <c r="C62">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="B63">
+        <v>35346.844313648005</v>
+      </c>
+      <c r="C63">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="B64">
+        <v>30866.827959939506</v>
+      </c>
+      <c r="C64">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="B65">
+        <v>36467.337428263447</v>
+      </c>
+      <c r="C65">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="B66">
+        <v>36244.364282188923</v>
+      </c>
+      <c r="C66">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="B67">
+        <v>33980.834119373045</v>
+      </c>
+      <c r="C67">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="B68">
+        <v>43666.324916988757</v>
+      </c>
+      <c r="C68">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="B69">
+        <v>33968.280103946425</v>
+      </c>
+      <c r="C69">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="B70">
+        <v>34997.501976300031</v>
+      </c>
+      <c r="C70">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="B71">
+        <v>44930.242457986766</v>
+      </c>
+      <c r="C71">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="B72">
+        <v>37737.294042691181</v>
+      </c>
+      <c r="C72">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="B73">
+        <v>30610.116590385853</v>
+      </c>
+      <c r="C73">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="B74">
+        <v>35898.30952283174</v>
+      </c>
+      <c r="C74">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="B75">
+        <v>30713.378470011321</v>
+      </c>
+      <c r="C75">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="B76">
+        <v>41964.064443456155</v>
+      </c>
+      <c r="C76">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="B77">
+        <v>33803.610742146644</v>
+      </c>
+      <c r="C77">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="B78">
+        <v>45337.673242382647</v>
+      </c>
+      <c r="C78">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="B79">
+        <v>39937.914696019987</v>
+      </c>
+      <c r="C79">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="B80">
+        <v>41838.104239785433</v>
+      </c>
+      <c r="C80">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="B81">
+        <v>38150.061444343417</v>
+      </c>
+      <c r="C81">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="B82">
+        <v>40104.724304045914</v>
+      </c>
+      <c r="C82">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="B83">
+        <v>27871.214944358657</v>
+      </c>
+      <c r="C83">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="B84">
+        <v>28369.155334313702</v>
+      </c>
+      <c r="C84">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="B85">
+        <v>26895.83658708481</v>
+      </c>
+      <c r="C85">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="B86">
+        <v>27829.56861464227</v>
+      </c>
+      <c r="C86">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="B87">
+        <v>36035.219593904985</v>
+      </c>
+      <c r="C87">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="B88">
+        <v>40189.166239912243</v>
+      </c>
+      <c r="C88">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="B89">
+        <v>34529.989832063497</v>
+      </c>
+      <c r="C89">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="B90">
+        <v>27847.01684544174</v>
+      </c>
+      <c r="C90">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="B91">
+        <v>29482.013261411845</v>
+      </c>
+      <c r="C91">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="B92">
+        <v>38623.584711271789</v>
+      </c>
+      <c r="C92">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="B93">
+        <v>39129.600743199364</v>
+      </c>
+      <c r="C93">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="B94">
+        <v>23844.103334863943</v>
+      </c>
+      <c r="C94">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="B95">
+        <v>21358.037063633074</v>
+      </c>
+      <c r="C95">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="B96">
+        <v>20955.540935780187</v>
+      </c>
+      <c r="C96">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="B97">
+        <v>18351.438204667935</v>
+      </c>
+      <c r="C97">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="B98">
+        <v>31303.528159702812</v>
+      </c>
+      <c r="C98">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="B99">
+        <v>35533.752378073972</v>
+      </c>
+      <c r="C99">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="B100">
+        <v>39334.26362616093</v>
+      </c>
+      <c r="C100">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="B101">
+        <v>35342.436942704167</v>
+      </c>
+      <c r="C101">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="B102">
+        <v>38283.688207204948</v>
+      </c>
+      <c r="C102">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="B103">
+        <v>33437.021456288174</v>
+      </c>
+      <c r="C103">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="B104">
+        <v>38639.23099651275</v>
+      </c>
+      <c r="C104">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="B105">
+        <v>33870.640153459681</v>
+      </c>
+      <c r="C105">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="B106">
+        <v>17359.041183041154</v>
+      </c>
+      <c r="C106">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="B107">
+        <v>42679.617257571343</v>
+      </c>
+      <c r="C107">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="B108">
+        <v>17718.645235463762</v>
+      </c>
+      <c r="C108">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="B109">
+        <v>39381.385369783413</v>
+      </c>
+      <c r="C109">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="B110">
+        <v>34521.026973957531</v>
+      </c>
+      <c r="C110">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="B111">
+        <v>41400.430472176231</v>
+      </c>
+      <c r="C111">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="B112">
+        <v>38144.85861434463</v>
+      </c>
+      <c r="C112">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="B113">
+        <v>38249.806506617373</v>
+      </c>
+      <c r="C113">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="B114">
+        <v>41400.430472176231</v>
+      </c>
+      <c r="C114">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="B115">
+        <v>23578.716000934812</v>
+      </c>
+      <c r="C115">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="B116">
+        <v>32877.164767615832</v>
+      </c>
+      <c r="C116">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="B117">
+        <v>35411.626242926373</v>
+      </c>
+      <c r="C117">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="B118">
+        <v>45179.955523152879</v>
+      </c>
+      <c r="C118">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="B119">
+        <v>36857.900075876707</v>
+      </c>
+      <c r="C119">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="B120">
+        <v>35686.462847723087</v>
+      </c>
+      <c r="C120">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="B121">
+        <v>35686.462847723087</v>
+      </c>
+      <c r="C121">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="B122">
+        <v>38597.935561185019</v>
+      </c>
+      <c r="C122">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="B123">
+        <v>36850.370222252866</v>
+      </c>
+      <c r="C123">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="B124">
+        <v>33820.549640786674</v>
+      </c>
+      <c r="C124">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="B125">
+        <v>26133.753976839111</v>
+      </c>
+      <c r="C125">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="B126">
+        <v>39972.98444509464</v>
+      </c>
+      <c r="C126">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="B127">
+        <v>35535.491867163262</v>
+      </c>
+      <c r="C127">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="B128">
+        <v>29325.729136202612</v>
+      </c>
+      <c r="C128">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="B129">
+        <v>33148.843807430239</v>
+      </c>
+      <c r="C129">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="B130">
+        <v>24025.638179729471</v>
+      </c>
+      <c r="C130">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="B131">
+        <v>22081.740414050717</v>
+      </c>
+      <c r="C131">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="B132">
+        <v>35278.858616282232</v>
+      </c>
+      <c r="C132">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="B133">
+        <v>29008.130772101464</v>
+      </c>
+      <c r="C133">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="B134">
+        <v>27605.807063044736</v>
+      </c>
+      <c r="C134">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="B135">
+        <v>28091.381993220512</v>
+      </c>
+      <c r="C135">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="B136">
+        <v>30633.20710686607</v>
+      </c>
+      <c r="C136">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="B137">
         <v>30536.393487826677</v>
       </c>
-      <c r="C30">
+      <c r="C137">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="B138">
+        <v>31316.747951567322</v>
+      </c>
+      <c r="C138">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="B139">
+        <v>30633.20710686607</v>
+      </c>
+      <c r="C139">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="B140">
+        <v>31300.96362253989</v>
+      </c>
+      <c r="C140">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="B141">
+        <v>31300.96362253989</v>
+      </c>
+      <c r="C141">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="B142">
+        <v>16951.029217865584</v>
+      </c>
+      <c r="C142">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="B143">
+        <v>33770.51897116589</v>
+      </c>
+      <c r="C143">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="B144">
+        <v>31300.96362253989</v>
+      </c>
+      <c r="C144">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="B145">
+        <v>35669.461990702286</v>
+      </c>
+      <c r="C145">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="B146">
+        <v>26871.561811127216</v>
+      </c>
+      <c r="C146">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="B147">
+        <v>31300.96362253989</v>
+      </c>
+      <c r="C147">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="B148">
+        <v>31538.744374715123</v>
+      </c>
+      <c r="C148">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="B149">
+        <v>25530.33087812275</v>
+      </c>
+      <c r="C149">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="B150">
+        <v>31300.96362253989</v>
+      </c>
+      <c r="C150">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="B151">
+        <v>31312.160189492188</v>
+      </c>
+      <c r="C151">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="B152">
+        <v>31644.261399543084</v>
+      </c>
+      <c r="C152">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="B153">
+        <v>31312.160189492188</v>
+      </c>
+      <c r="C153">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="B154">
+        <v>31300.96362253989</v>
+      </c>
+      <c r="C154">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="B155">
+        <v>31300.96362253989</v>
+      </c>
+      <c r="C155">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="B156">
+        <v>35669.461990702286</v>
+      </c>
+      <c r="C156">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="B157">
+        <v>30712.621801222103</v>
+      </c>
+      <c r="C157">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="B158">
+        <v>31312.160189492188</v>
+      </c>
+      <c r="C158">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="B159">
+        <v>30651.04056501768</v>
+      </c>
+      <c r="C159">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="B160">
+        <v>25530.33087812275</v>
+      </c>
+      <c r="C160">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="B161">
+        <v>31300.96362253989</v>
+      </c>
+      <c r="C161">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="B162">
+        <v>28000.549804436374</v>
+      </c>
+      <c r="C162">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="B163">
+        <v>31312.160189492188</v>
+      </c>
+      <c r="C163">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="B164">
+        <v>31300.96362253989</v>
+      </c>
+      <c r="C164">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="B165">
+        <v>31312.160189492188</v>
+      </c>
+      <c r="C165">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="B166">
+        <v>31300.96362253989</v>
+      </c>
+      <c r="C166">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="B167">
+        <v>31300.96362253989</v>
+      </c>
+      <c r="C167">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="B168">
+        <v>31081.746711899181</v>
+      </c>
+      <c r="C168">
         <v>1</v>
       </c>
     </row>
